--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\fuels\BCTR (new)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A625B970-97B8-4101-8904-131677F075A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BF4DB-7924-4AEB-8B67-5B11249551F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="17265" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -192,17 +192,26 @@
   <si>
     <t>Sources:</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>We take the ETS value from the Potencia scenarios, but smooth the data to avoid spikes in fossil generation.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0;\-#,##0.0;&quot;&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0;\-#,##0;&quot;&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;\-#,##0.0;&quot;&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;&quot;&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -380,7 +389,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,7 +408,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -408,52 +417,52 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -461,6 +470,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,6 +493,995 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'JRC POTEnCIA_PolVar'!$U$5:$AZ$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0;\-#,##0.0;"-"</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>20.450616549204799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.750163749787699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.487668377578931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.374247577550154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.533062358233479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.352687324637454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.32993959494371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.609466638219342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.16104097716741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.95745788222067</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.73355633769707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.181220668510981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.381828883542461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.121879533240254</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.506971307564342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.150562640638967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.296243414647932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.293513028098083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.320850414677864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.162003656664353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.73200071190044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.897190929419125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72.497724082681898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.357064469233748</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.328557275639398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.869633813664407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.204623125351731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87.827037407623422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.6429014360058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.962631834683975</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>111.98682238530424</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121.65967942422328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6EE-4F1E-BB2F-7A24D8B1B67D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="704541776"/>
+        <c:axId val="704538864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="704541776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704538864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="704538864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704541776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CAB34C-F36A-4CEE-A810-1F7A7231EDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,18 +1781,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -796,72 +1802,72 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.327</v>
       </c>
@@ -869,17 +1875,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.0529999999999999</v>
       </c>
@@ -887,9 +1893,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -908,24 +1919,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ44"/>
+  <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A27" sqref="A27"/>
       <selection pane="topRight" activeCell="A27" sqref="A27"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.73046875" style="9" customWidth="1"/>
-    <col min="2" max="52" width="9.73046875" style="29" customWidth="1"/>
-    <col min="53" max="16384" width="9.1328125" style="9"/>
+    <col min="1" max="1" width="51.7265625" style="9" customWidth="1"/>
+    <col min="2" max="52" width="9.7265625" style="29" customWidth="1"/>
+    <col min="53" max="16384" width="9.08984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1083,533 +2094,581 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-    </row>
-    <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33">
+        <v>1</v>
+      </c>
+      <c r="V2" s="33">
+        <v>2</v>
+      </c>
+      <c r="W2" s="33">
+        <v>3</v>
+      </c>
+      <c r="X2" s="33">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="33">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="33">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="33">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="33">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="33">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="33">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="33">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="33">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="33">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="33">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="33">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="33">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="33">
+        <v>22</v>
+      </c>
+      <c r="AQ2" s="33">
         <v>23</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-    </row>
-    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="AR2" s="33">
         <v>24</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15">
+      <c r="AS2" s="33">
+        <v>25</v>
+      </c>
+      <c r="AT2" s="33">
+        <v>26</v>
+      </c>
+      <c r="AU2" s="33">
+        <v>27</v>
+      </c>
+      <c r="AV2" s="33">
+        <v>28</v>
+      </c>
+      <c r="AW2" s="33">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="33">
+        <v>30</v>
+      </c>
+      <c r="AY2" s="33">
+        <v>31</v>
+      </c>
+      <c r="AZ2" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+    </row>
+    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+    </row>
+    <row r="5" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
         <v>22.412482810125713</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H5" s="15">
         <v>18.272405158082261</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I5" s="15">
         <v>17.162795781415973</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J5" s="15">
         <v>22.146963852821798</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K5" s="15">
         <v>13.758851389383951</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L5" s="15">
         <v>11.2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M5" s="15">
         <v>12.909627547347471</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N5" s="15">
         <v>7.2367428800271583</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O5" s="15">
         <v>4.2078576026770351</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P5" s="15">
         <v>5.5733466970043146</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q5" s="15">
         <v>6.9723042046886903</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R5" s="15">
         <v>4.8819781891344443</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S5" s="15">
         <v>5.347402605002225</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T5" s="15">
         <v>14.1319839400115</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U5" s="15">
         <v>20.450616549204799</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V5" s="15">
         <v>22.750163749787699</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W5" s="15">
         <v>20.487668377578931</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X5" s="15">
         <v>28.374247577550154</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y5" s="15">
         <v>30.533062358233479</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z5" s="15">
         <v>30.352687324637454</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA5" s="15">
         <v>27.32993959494371</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB5" s="15">
         <v>24.609466638219342</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC5" s="15">
         <v>22.16104097716741</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD5" s="15">
         <v>19.95745788222067</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE5" s="15">
         <v>22.73355633769707</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF5" s="15">
         <v>25.181220668510981</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AG5" s="15">
         <v>24.381828883542461</v>
       </c>
-      <c r="AH4" s="15">
+      <c r="AH5" s="15">
         <v>33.121879533240254</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AI5" s="15">
         <v>38.506971307564342</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ5" s="15">
         <v>47.150562640638967</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK5" s="15">
         <v>52.296243414647932</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL5" s="15">
         <v>52.293513028098083</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM5" s="15">
         <v>59.320850414677864</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN5" s="15">
         <v>65.162003656664353</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO5" s="15">
         <v>68.73200071190044</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="AP5" s="15">
         <v>72.897190929419125</v>
       </c>
-      <c r="AQ4" s="15">
+      <c r="AQ5" s="15">
         <v>72.497724082681898</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR5" s="15">
         <v>75.357064469233748</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="AS5" s="15">
         <v>78.328557275639398</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AT5" s="15">
         <v>84.869633813664407</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU5" s="15">
         <v>84.204623125351731</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV5" s="15">
         <v>87.827037407623422</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW5" s="15">
         <v>100.6429014360058</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AX5" s="15">
         <v>99.962631834683975</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY5" s="15">
         <v>111.98682238530424</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ5" s="15">
         <v>121.65967942422328</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-    </row>
-    <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+    </row>
+    <row r="8" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17">
         <v>8207.6461454036344</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q8" s="17">
         <v>24622.938436210905</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R8" s="17">
         <v>49291.242978577146</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S8" s="17">
         <v>82209.945561976027</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T8" s="17">
         <v>123432.25492414182</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U8" s="17">
         <v>172950.3284334956</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V8" s="17">
         <v>230766.78030056367</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-    </row>
-    <row r="8" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+    </row>
+    <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19">
         <v>10666.633225268808</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q9" s="19">
         <v>30358.563234268167</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R9" s="19">
         <v>57426.174531711127</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S9" s="19">
         <v>87852.058154005295</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T9" s="19">
         <v>131436.91056920856</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U9" s="19">
         <v>182002.49363524586</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V9" s="19">
         <v>237715.28350610728</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-    </row>
-    <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+    </row>
+    <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21">
-        <v>688.52917653575696</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>1669.4390341128899</v>
-      </c>
-      <c r="R9" s="21">
-        <v>3403.9844804455333</v>
-      </c>
-      <c r="S9" s="21">
-        <v>5282.7345933124197</v>
-      </c>
-      <c r="T9" s="21">
-        <v>7354.0414410349404</v>
-      </c>
-      <c r="U9" s="21">
-        <v>9757.6652958856339</v>
-      </c>
-      <c r="V9" s="21">
-        <v>12509.488917045175</v>
-      </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-    </row>
-    <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1626,25 +2685,25 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21">
-        <v>992.02515726566457</v>
+        <v>688.52917653575696</v>
       </c>
       <c r="Q10" s="21">
-        <v>2865.0019226731215</v>
+        <v>1669.4390341128899</v>
       </c>
       <c r="R10" s="21">
-        <v>5700.2402429167523</v>
+        <v>3403.9844804455333</v>
       </c>
       <c r="S10" s="21">
-        <v>8639.2583546647911</v>
+        <v>5282.7345933124197</v>
       </c>
       <c r="T10" s="21">
-        <v>12577.799982848192</v>
+        <v>7354.0414410349404</v>
       </c>
       <c r="U10" s="21">
-        <v>18100.682689662786</v>
+        <v>9757.6652958856339</v>
       </c>
       <c r="V10" s="21">
-        <v>24684.578440647165</v>
+        <v>12509.488917045175</v>
       </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -1677,9 +2736,9 @@
       <c r="AY10" s="21"/>
       <c r="AZ10" s="21"/>
     </row>
-    <row r="11" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1696,25 +2755,25 @@
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21">
-        <v>165.21031308875274</v>
+        <v>992.02515726566457</v>
       </c>
       <c r="Q11" s="21">
-        <v>535.19645435368022</v>
+        <v>2865.0019226731215</v>
       </c>
       <c r="R11" s="21">
-        <v>923.70648411992738</v>
+        <v>5700.2402429167523</v>
       </c>
       <c r="S11" s="21">
-        <v>1466.0693988718776</v>
+        <v>8639.2583546647911</v>
       </c>
       <c r="T11" s="21">
-        <v>2169.5028836142756</v>
+        <v>12577.799982848192</v>
       </c>
       <c r="U11" s="21">
-        <v>3070.8516150792516</v>
+        <v>18100.682689662786</v>
       </c>
       <c r="V11" s="21">
-        <v>4176.6733920890529</v>
+        <v>24684.578440647165</v>
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -1747,9 +2806,9 @@
       <c r="AY11" s="21"/>
       <c r="AZ11" s="21"/>
     </row>
-    <row r="12" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1766,25 +2825,25 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21">
-        <v>787.91645457150514</v>
+        <v>165.21031308875274</v>
       </c>
       <c r="Q12" s="21">
-        <v>2424.7564214081926</v>
+        <v>535.19645435368022</v>
       </c>
       <c r="R12" s="21">
-        <v>4049.1157248621321</v>
+        <v>923.70648411992738</v>
       </c>
       <c r="S12" s="21">
-        <v>5828.9780988460925</v>
+        <v>1466.0693988718776</v>
       </c>
       <c r="T12" s="21">
-        <v>7567.2881691114235</v>
+        <v>2169.5028836142756</v>
       </c>
       <c r="U12" s="21">
-        <v>9355.2444901955932</v>
+        <v>3070.8516150792516</v>
       </c>
       <c r="V12" s="21">
-        <v>11196.816439581289</v>
+        <v>4176.6733920890529</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -1817,9 +2876,9 @@
       <c r="AY12" s="21"/>
       <c r="AZ12" s="21"/>
     </row>
-    <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1836,25 +2895,25 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21">
-        <v>8032.9521238071284</v>
+        <v>787.91645457150514</v>
       </c>
       <c r="Q13" s="21">
-        <v>22864.169401720283</v>
+        <v>2424.7564214081926</v>
       </c>
       <c r="R13" s="21">
-        <v>43349.12759936678</v>
+        <v>4049.1157248621321</v>
       </c>
       <c r="S13" s="21">
-        <v>66635.017708310115</v>
+        <v>5828.9780988460925</v>
       </c>
       <c r="T13" s="21">
-        <v>101768.27809259972</v>
+        <v>7567.2881691114235</v>
       </c>
       <c r="U13" s="21">
-        <v>141718.0495444226</v>
+        <v>9355.2444901955932</v>
       </c>
       <c r="V13" s="21">
-        <v>185147.72631674458</v>
+        <v>11196.816439581289</v>
       </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -1887,131 +2946,135 @@
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21"/>
     </row>
-    <row r="14" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21">
+        <v>8032.9521238071284</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>22864.169401720283</v>
+      </c>
+      <c r="R14" s="21">
+        <v>43349.12759936678</v>
+      </c>
+      <c r="S14" s="21">
+        <v>66635.017708310115</v>
+      </c>
+      <c r="T14" s="21">
+        <v>101768.27809259972</v>
+      </c>
+      <c r="U14" s="21">
+        <v>141718.0495444226</v>
+      </c>
+      <c r="V14" s="21">
+        <v>185147.72631674458</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+    </row>
+    <row r="15" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-    </row>
-    <row r="15" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+    </row>
+    <row r="16" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="21">
-        <v>5.8006565117191082E-4</v>
-      </c>
-      <c r="T15" s="21">
-        <v>0.26199267762459566</v>
-      </c>
-      <c r="U15" s="21">
-        <v>0.52328768378481061</v>
-      </c>
-      <c r="V15" s="21">
-        <v>0.58217958559702421</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-    </row>
-    <row r="16" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2033,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="S16" s="21">
-        <v>4.5077669107603472E-3</v>
+        <v>5.8006565117191082E-4</v>
       </c>
       <c r="T16" s="21">
-        <v>2.0141618696011676</v>
+        <v>0.26199267762459566</v>
       </c>
       <c r="U16" s="21">
-        <v>3.9816316752301248</v>
+        <v>0.52328768378481061</v>
       </c>
       <c r="V16" s="21">
-        <v>4.408069097582457</v>
+        <v>0.58217958559702421</v>
       </c>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
@@ -2075,9 +3138,9 @@
       <c r="AY16" s="21"/>
       <c r="AZ16" s="21"/>
     </row>
-    <row r="17" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2099,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="21">
-        <v>1.0985793662886725E-4</v>
+        <v>4.5077669107603472E-3</v>
       </c>
       <c r="T17" s="21">
-        <v>5.0952534610351922E-2</v>
+        <v>2.0141618696011676</v>
       </c>
       <c r="U17" s="21">
-        <v>0.10416606690694466</v>
+        <v>3.9816316752301248</v>
       </c>
       <c r="V17" s="21">
-        <v>0.11794038957809122</v>
+        <v>4.408069097582457</v>
       </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
@@ -2141,9 +3204,9 @@
       <c r="AY17" s="21"/>
       <c r="AZ17" s="21"/>
     </row>
-    <row r="18" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2165,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="21">
-        <v>3.9581406356989601E-4</v>
+        <v>1.0985793662886725E-4</v>
       </c>
       <c r="T18" s="21">
-        <v>0.17859406992658627</v>
+        <v>5.0952534610351922E-2</v>
       </c>
       <c r="U18" s="21">
-        <v>0.35785281592173851</v>
+        <v>0.10416606690694466</v>
       </c>
       <c r="V18" s="21">
-        <v>0.39836596348786424</v>
+        <v>0.11794038957809122</v>
       </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
@@ -2207,303 +3270,253 @@
       <c r="AY18" s="21"/>
       <c r="AZ18" s="21"/>
     </row>
-    <row r="19" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <v>3.9581406356989601E-4</v>
+      </c>
+      <c r="T19" s="21">
+        <v>0.17859406992658627</v>
+      </c>
+      <c r="U19" s="21">
+        <v>0.35785281592173851</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0.39836596348786424</v>
+      </c>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+    </row>
+    <row r="20" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
         <v>4.0326001207490229E-4</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T20" s="15">
         <v>0.17972656477165935</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U20" s="15">
         <v>0.35495731874293363</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V20" s="15">
         <v>0.39234871232088903</v>
       </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-    </row>
-    <row r="21" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+    </row>
+    <row r="22" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-    </row>
-    <row r="22" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+    </row>
+    <row r="23" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-    </row>
-    <row r="23" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+    </row>
+    <row r="24" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21">
-        <v>224179.36721184163</v>
-      </c>
-      <c r="X23" s="21">
-        <v>219090.7993697036</v>
-      </c>
-      <c r="Y23" s="21">
-        <v>215522.15574471551</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>211714.4209601015</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>210575.78582385232</v>
-      </c>
-      <c r="AB23" s="21">
-        <v>210853.74212985457</v>
-      </c>
-      <c r="AC23" s="21">
-        <v>210948.81218355853</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>210120.78843319102</v>
-      </c>
-      <c r="AE23" s="21">
-        <v>210846.78006423515</v>
-      </c>
-      <c r="AF23" s="21">
-        <v>210787.93677424005</v>
-      </c>
-      <c r="AG23" s="21">
-        <v>209828.01583189733</v>
-      </c>
-      <c r="AH23" s="21">
-        <v>209272.60311384877</v>
-      </c>
-      <c r="AI23" s="21">
-        <v>209160.66373007323</v>
-      </c>
-      <c r="AJ23" s="21">
-        <v>209587.45836300935</v>
-      </c>
-      <c r="AK23" s="21">
-        <v>209993.65198081182</v>
-      </c>
-      <c r="AL23" s="21">
-        <v>210720.71844422485</v>
-      </c>
-      <c r="AM23" s="21">
-        <v>211853.14838767526</v>
-      </c>
-      <c r="AN23" s="21">
-        <v>212432.98354259648</v>
-      </c>
-      <c r="AO23" s="21">
-        <v>212998.98967247165</v>
-      </c>
-      <c r="AP23" s="21">
-        <v>214322.1614008891</v>
-      </c>
-      <c r="AQ23" s="21">
-        <v>215497.22130825333</v>
-      </c>
-      <c r="AR23" s="21">
-        <v>216615.75520211982</v>
-      </c>
-      <c r="AS23" s="21">
-        <v>217105.66199149512</v>
-      </c>
-      <c r="AT23" s="21">
-        <v>217106.9070609675</v>
-      </c>
-      <c r="AU23" s="21">
-        <v>217687.7769506014</v>
-      </c>
-      <c r="AV23" s="21">
-        <v>217956.40878443784</v>
-      </c>
-      <c r="AW23" s="21">
-        <v>216695.10475960418</v>
-      </c>
-      <c r="AX23" s="21">
-        <v>215484.69133410288</v>
-      </c>
-      <c r="AY23" s="21">
-        <v>214132.07042702247</v>
-      </c>
-      <c r="AZ23" s="21">
-        <v>213270.3593869227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2524,278 +3537,278 @@
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
-      <c r="U24" s="21">
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21">
+        <v>224179.36721184163</v>
+      </c>
+      <c r="X24" s="21">
+        <v>219090.7993697036</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>215522.15574471551</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>211714.4209601015</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>210575.78582385232</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>210853.74212985457</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>210948.81218355853</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>210120.78843319102</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>210846.78006423515</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>210787.93677424005</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>209828.01583189733</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>209272.60311384877</v>
+      </c>
+      <c r="AI24" s="21">
+        <v>209160.66373007323</v>
+      </c>
+      <c r="AJ24" s="21">
+        <v>209587.45836300935</v>
+      </c>
+      <c r="AK24" s="21">
+        <v>209993.65198081182</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>210720.71844422485</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>211853.14838767526</v>
+      </c>
+      <c r="AN24" s="21">
+        <v>212432.98354259648</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>212998.98967247165</v>
+      </c>
+      <c r="AP24" s="21">
+        <v>214322.1614008891</v>
+      </c>
+      <c r="AQ24" s="21">
+        <v>215497.22130825333</v>
+      </c>
+      <c r="AR24" s="21">
+        <v>216615.75520211982</v>
+      </c>
+      <c r="AS24" s="21">
+        <v>217105.66199149512</v>
+      </c>
+      <c r="AT24" s="21">
+        <v>217106.9070609675</v>
+      </c>
+      <c r="AU24" s="21">
+        <v>217687.7769506014</v>
+      </c>
+      <c r="AV24" s="21">
+        <v>217956.40878443784</v>
+      </c>
+      <c r="AW24" s="21">
+        <v>216695.10475960418</v>
+      </c>
+      <c r="AX24" s="21">
+        <v>215484.69133410288</v>
+      </c>
+      <c r="AY24" s="21">
+        <v>214132.07042702247</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>213270.3593869227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21">
         <v>118181.28108663169</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V25" s="21">
         <v>111338.921239595</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W25" s="21">
         <v>107005.12061549527</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X25" s="21">
         <v>104200.56909195347</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y25" s="21">
         <v>102076.16166706762</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z25" s="21">
         <v>100314.4800965819</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA25" s="21">
         <v>99311.621063092622</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB25" s="21">
         <v>98957.840185401888</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC25" s="21">
         <v>98440.196783799795</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AD25" s="21">
         <v>97721.058074307293</v>
       </c>
-      <c r="AE24" s="21">
+      <c r="AE25" s="21">
         <v>97299.7985488173</v>
       </c>
-      <c r="AF24" s="21">
+      <c r="AF25" s="21">
         <v>96752.892187008852</v>
       </c>
-      <c r="AG24" s="21">
+      <c r="AG25" s="21">
         <v>95868.704910204964</v>
       </c>
-      <c r="AH24" s="21">
+      <c r="AH25" s="21">
         <v>95148.649810806673</v>
       </c>
-      <c r="AI24" s="21">
+      <c r="AI25" s="21">
         <v>94698.338339345806</v>
       </c>
-      <c r="AJ24" s="21">
+      <c r="AJ25" s="21">
         <v>94350.306836192394</v>
       </c>
-      <c r="AK24" s="21">
+      <c r="AK25" s="21">
         <v>93965.336019473558</v>
       </c>
-      <c r="AL24" s="21">
+      <c r="AL25" s="21">
         <v>93601.541373091852</v>
       </c>
-      <c r="AM24" s="21">
+      <c r="AM25" s="21">
         <v>93362.546611255384</v>
       </c>
-      <c r="AN24" s="21">
+      <c r="AN25" s="21">
         <v>92986.154066053801</v>
       </c>
-      <c r="AO24" s="21">
+      <c r="AO25" s="21">
         <v>92761.528447737859</v>
       </c>
-      <c r="AP24" s="21">
+      <c r="AP25" s="21">
         <v>92817.335407818173</v>
       </c>
-      <c r="AQ24" s="21">
+      <c r="AQ25" s="21">
         <v>92878.642825537841</v>
       </c>
-      <c r="AR24" s="21">
+      <c r="AR25" s="21">
         <v>92955.919966060857</v>
       </c>
-      <c r="AS24" s="21">
+      <c r="AS25" s="21">
         <v>92888.412363985524</v>
       </c>
-      <c r="AT24" s="21">
+      <c r="AT25" s="21">
         <v>92671.72902824184</v>
       </c>
-      <c r="AU24" s="21">
+      <c r="AU25" s="21">
         <v>92794.387042414863</v>
       </c>
-      <c r="AV24" s="21">
+      <c r="AV25" s="21">
         <v>92440.919150076224</v>
       </c>
-      <c r="AW24" s="21">
+      <c r="AW25" s="21">
         <v>91871.884374267305</v>
       </c>
-      <c r="AX24" s="21">
+      <c r="AX25" s="21">
         <v>91398.421268339691</v>
       </c>
-      <c r="AY24" s="21">
+      <c r="AY25" s="21">
         <v>90933.831955360758</v>
       </c>
-      <c r="AZ24" s="21">
+      <c r="AZ25" s="21">
         <v>90580.205084653222</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-    </row>
-    <row r="26" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="20" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+    </row>
+    <row r="27" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21">
-        <v>61.31627834004486</v>
-      </c>
-      <c r="X26" s="21">
-        <v>60.411992654238873</v>
-      </c>
-      <c r="Y26" s="21">
-        <v>60.234796444962065</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>60.038733979098772</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>59.909283097915171</v>
-      </c>
-      <c r="AB26" s="21">
-        <v>59.840113789714337</v>
-      </c>
-      <c r="AC26" s="21">
-        <v>59.752269369735259</v>
-      </c>
-      <c r="AD26" s="21">
-        <v>59.695849754147432</v>
-      </c>
-      <c r="AE26" s="21">
-        <v>59.633625495853494</v>
-      </c>
-      <c r="AF26" s="21">
-        <v>59.584616164217756</v>
-      </c>
-      <c r="AG26" s="21">
-        <v>59.402112732198127</v>
-      </c>
-      <c r="AH26" s="21">
-        <v>59.455451004071548</v>
-      </c>
-      <c r="AI26" s="21">
-        <v>59.457440223239765</v>
-      </c>
-      <c r="AJ26" s="21">
-        <v>59.472594513430387</v>
-      </c>
-      <c r="AK26" s="21">
-        <v>59.498449331799257</v>
-      </c>
-      <c r="AL26" s="21">
-        <v>59.299700271282077</v>
-      </c>
-      <c r="AM26" s="21">
-        <v>59.326348916497096</v>
-      </c>
-      <c r="AN26" s="21">
-        <v>59.241807968873822</v>
-      </c>
-      <c r="AO26" s="21">
-        <v>59.223833629953425</v>
-      </c>
-      <c r="AP26" s="21">
-        <v>59.067335694950764</v>
-      </c>
-      <c r="AQ26" s="21">
-        <v>58.810477786673815</v>
-      </c>
-      <c r="AR26" s="21">
-        <v>58.394491819263614</v>
-      </c>
-      <c r="AS26" s="21">
-        <v>58.216870597895472</v>
-      </c>
-      <c r="AT26" s="21">
-        <v>57.737178089091664</v>
-      </c>
-      <c r="AU26" s="21">
-        <v>57.465751642936773</v>
-      </c>
-      <c r="AV26" s="21">
-        <v>57.26984600015426</v>
-      </c>
-      <c r="AW26" s="21">
-        <v>57.067571218710285</v>
-      </c>
-      <c r="AX26" s="21">
-        <v>56.824583828877891</v>
-      </c>
-      <c r="AY26" s="21">
-        <v>56.674425882995031</v>
-      </c>
-      <c r="AZ26" s="21">
-        <v>56.725771768851637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2816,278 +3829,278 @@
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
-      <c r="U27" s="21">
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21">
+        <v>61.31627834004486</v>
+      </c>
+      <c r="X27" s="21">
+        <v>60.411992654238873</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>60.234796444962065</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>60.038733979098772</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>59.909283097915171</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>59.840113789714337</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>59.752269369735259</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>59.695849754147432</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>59.633625495853494</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>59.584616164217756</v>
+      </c>
+      <c r="AG27" s="21">
+        <v>59.402112732198127</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>59.455451004071548</v>
+      </c>
+      <c r="AI27" s="21">
+        <v>59.457440223239765</v>
+      </c>
+      <c r="AJ27" s="21">
+        <v>59.472594513430387</v>
+      </c>
+      <c r="AK27" s="21">
+        <v>59.498449331799257</v>
+      </c>
+      <c r="AL27" s="21">
+        <v>59.299700271282077</v>
+      </c>
+      <c r="AM27" s="21">
+        <v>59.326348916497096</v>
+      </c>
+      <c r="AN27" s="21">
+        <v>59.241807968873822</v>
+      </c>
+      <c r="AO27" s="21">
+        <v>59.223833629953425</v>
+      </c>
+      <c r="AP27" s="21">
+        <v>59.067335694950764</v>
+      </c>
+      <c r="AQ27" s="21">
+        <v>58.810477786673815</v>
+      </c>
+      <c r="AR27" s="21">
+        <v>58.394491819263614</v>
+      </c>
+      <c r="AS27" s="21">
+        <v>58.216870597895472</v>
+      </c>
+      <c r="AT27" s="21">
+        <v>57.737178089091664</v>
+      </c>
+      <c r="AU27" s="21">
+        <v>57.465751642936773</v>
+      </c>
+      <c r="AV27" s="21">
+        <v>57.26984600015426</v>
+      </c>
+      <c r="AW27" s="21">
+        <v>57.067571218710285</v>
+      </c>
+      <c r="AX27" s="21">
+        <v>56.824583828877891</v>
+      </c>
+      <c r="AY27" s="21">
+        <v>56.674425882995031</v>
+      </c>
+      <c r="AZ27" s="21">
+        <v>56.725771768851637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21">
         <v>122.5665110702827</v>
       </c>
-      <c r="V27" s="21">
+      <c r="V28" s="21">
         <v>121.67758745375586</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W28" s="21">
         <v>120.59410004226066</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X28" s="21">
         <v>116.23432453040934</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y28" s="21">
         <v>115.75480769923581</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z28" s="21">
         <v>114.9895170683307</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA28" s="21">
         <v>114.75619772881441</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB28" s="21">
         <v>114.56472675832447</v>
       </c>
-      <c r="AC27" s="21">
+      <c r="AC28" s="21">
         <v>114.45381236821484</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AD28" s="21">
         <v>114.24782730636451</v>
       </c>
-      <c r="AE27" s="21">
+      <c r="AE28" s="21">
         <v>113.64129050053327</v>
       </c>
-      <c r="AF27" s="21">
+      <c r="AF28" s="21">
         <v>112.71407946100919</v>
       </c>
-      <c r="AG27" s="21">
+      <c r="AG28" s="21">
         <v>111.23807161269607</v>
       </c>
-      <c r="AH27" s="21">
+      <c r="AH28" s="21">
         <v>110.72250153869881</v>
       </c>
-      <c r="AI27" s="21">
+      <c r="AI28" s="21">
         <v>110.83017655961724</v>
       </c>
-      <c r="AJ27" s="21">
+      <c r="AJ28" s="21">
         <v>110.50047145240981</v>
       </c>
-      <c r="AK27" s="21">
+      <c r="AK28" s="21">
         <v>109.47367203513876</v>
       </c>
-      <c r="AL27" s="21">
+      <c r="AL28" s="21">
         <v>107.50892226986606</v>
       </c>
-      <c r="AM27" s="21">
+      <c r="AM28" s="21">
         <v>106.12927344938269</v>
       </c>
-      <c r="AN27" s="21">
+      <c r="AN28" s="21">
         <v>104.85425755755206</v>
       </c>
-      <c r="AO27" s="21">
+      <c r="AO28" s="21">
         <v>103.95470595309577</v>
       </c>
-      <c r="AP27" s="21">
+      <c r="AP28" s="21">
         <v>103.23289050183396</v>
       </c>
-      <c r="AQ27" s="21">
+      <c r="AQ28" s="21">
         <v>102.4377636989348</v>
       </c>
-      <c r="AR27" s="21">
+      <c r="AR28" s="21">
         <v>101.62648802802553</v>
       </c>
-      <c r="AS27" s="21">
+      <c r="AS28" s="21">
         <v>101.17602453946718</v>
       </c>
-      <c r="AT27" s="21">
+      <c r="AT28" s="21">
         <v>100.45810743806776</v>
       </c>
-      <c r="AU27" s="21">
+      <c r="AU28" s="21">
         <v>99.749873414781021</v>
       </c>
-      <c r="AV27" s="21">
+      <c r="AV28" s="21">
         <v>99.986683207775599</v>
       </c>
-      <c r="AW27" s="21">
+      <c r="AW28" s="21">
         <v>99.787765709706207</v>
       </c>
-      <c r="AX27" s="21">
+      <c r="AX28" s="21">
         <v>98.841388421462625</v>
       </c>
-      <c r="AY27" s="21">
+      <c r="AY28" s="21">
         <v>98.439848158251834</v>
       </c>
-      <c r="AZ27" s="21">
+      <c r="AZ28" s="21">
         <v>98.105468018585029</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-    </row>
-    <row r="29" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="20" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+    </row>
+    <row r="30" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23">
-        <v>188.7691542227933</v>
-      </c>
-      <c r="X29" s="23">
-        <v>189.81458778366459</v>
-      </c>
-      <c r="Y29" s="23">
-        <v>190.6943892831739</v>
-      </c>
-      <c r="Z29" s="23">
-        <v>190.42652085636723</v>
-      </c>
-      <c r="AA29" s="23">
-        <v>189.86638870474792</v>
-      </c>
-      <c r="AB29" s="23">
-        <v>188.64771405591162</v>
-      </c>
-      <c r="AC29" s="23">
-        <v>187.36756650648798</v>
-      </c>
-      <c r="AD29" s="23">
-        <v>185.80066188655064</v>
-      </c>
-      <c r="AE29" s="23">
-        <v>184.57454034701757</v>
-      </c>
-      <c r="AF29" s="23">
-        <v>183.13222364976397</v>
-      </c>
-      <c r="AG29" s="23">
-        <v>181.16939482903319</v>
-      </c>
-      <c r="AH29" s="23">
-        <v>177.6643955741948</v>
-      </c>
-      <c r="AI29" s="23">
-        <v>175.1530495667931</v>
-      </c>
-      <c r="AJ29" s="23">
-        <v>172.5121681270561</v>
-      </c>
-      <c r="AK29" s="23">
-        <v>169.17117315983722</v>
-      </c>
-      <c r="AL29" s="23">
-        <v>165.31786579004509</v>
-      </c>
-      <c r="AM29" s="23">
-        <v>160.98265721680144</v>
-      </c>
-      <c r="AN29" s="23">
-        <v>157.53026022722153</v>
-      </c>
-      <c r="AO29" s="23">
-        <v>153.3537189166081</v>
-      </c>
-      <c r="AP29" s="23">
-        <v>150.04901486123924</v>
-      </c>
-      <c r="AQ29" s="23">
-        <v>146.94594154563842</v>
-      </c>
-      <c r="AR29" s="23">
-        <v>143.44756031765141</v>
-      </c>
-      <c r="AS29" s="23">
-        <v>141.00574792740028</v>
-      </c>
-      <c r="AT29" s="23">
-        <v>138.28318032316059</v>
-      </c>
-      <c r="AU29" s="23">
-        <v>135.35608300716771</v>
-      </c>
-      <c r="AV29" s="23">
-        <v>132.92421113478139</v>
-      </c>
-      <c r="AW29" s="23">
-        <v>130.05053495997353</v>
-      </c>
-      <c r="AX29" s="23">
-        <v>127.46673488281328</v>
-      </c>
-      <c r="AY29" s="23">
-        <v>124.12713446172884</v>
-      </c>
-      <c r="AZ29" s="23">
-        <v>120.28849765553251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -3108,636 +4121,626 @@
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
-      <c r="U30" s="23">
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23">
+        <v>188.7691542227933</v>
+      </c>
+      <c r="X30" s="23">
+        <v>189.81458778366459</v>
+      </c>
+      <c r="Y30" s="23">
+        <v>190.6943892831739</v>
+      </c>
+      <c r="Z30" s="23">
+        <v>190.42652085636723</v>
+      </c>
+      <c r="AA30" s="23">
+        <v>189.86638870474792</v>
+      </c>
+      <c r="AB30" s="23">
+        <v>188.64771405591162</v>
+      </c>
+      <c r="AC30" s="23">
+        <v>187.36756650648798</v>
+      </c>
+      <c r="AD30" s="23">
+        <v>185.80066188655064</v>
+      </c>
+      <c r="AE30" s="23">
+        <v>184.57454034701757</v>
+      </c>
+      <c r="AF30" s="23">
+        <v>183.13222364976397</v>
+      </c>
+      <c r="AG30" s="23">
+        <v>181.16939482903319</v>
+      </c>
+      <c r="AH30" s="23">
+        <v>177.6643955741948</v>
+      </c>
+      <c r="AI30" s="23">
+        <v>175.1530495667931</v>
+      </c>
+      <c r="AJ30" s="23">
+        <v>172.5121681270561</v>
+      </c>
+      <c r="AK30" s="23">
+        <v>169.17117315983722</v>
+      </c>
+      <c r="AL30" s="23">
+        <v>165.31786579004509</v>
+      </c>
+      <c r="AM30" s="23">
+        <v>160.98265721680144</v>
+      </c>
+      <c r="AN30" s="23">
+        <v>157.53026022722153</v>
+      </c>
+      <c r="AO30" s="23">
+        <v>153.3537189166081</v>
+      </c>
+      <c r="AP30" s="23">
+        <v>150.04901486123924</v>
+      </c>
+      <c r="AQ30" s="23">
+        <v>146.94594154563842</v>
+      </c>
+      <c r="AR30" s="23">
+        <v>143.44756031765141</v>
+      </c>
+      <c r="AS30" s="23">
+        <v>141.00574792740028</v>
+      </c>
+      <c r="AT30" s="23">
+        <v>138.28318032316059</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>135.35608300716771</v>
+      </c>
+      <c r="AV30" s="23">
+        <v>132.92421113478139</v>
+      </c>
+      <c r="AW30" s="23">
+        <v>130.05053495997353</v>
+      </c>
+      <c r="AX30" s="23">
+        <v>127.46673488281328</v>
+      </c>
+      <c r="AY30" s="23">
+        <v>124.12713446172884</v>
+      </c>
+      <c r="AZ30" s="23">
+        <v>120.28849765553251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23">
         <v>271.07299343709514</v>
       </c>
-      <c r="V30" s="23">
+      <c r="V31" s="23">
         <v>278.9398950672296</v>
       </c>
-      <c r="W30" s="23">
+      <c r="W31" s="23">
         <v>281.32910804961762</v>
       </c>
-      <c r="X30" s="23">
+      <c r="X31" s="23">
         <v>283.90462371167564</v>
       </c>
-      <c r="Y30" s="23">
+      <c r="Y31" s="23">
         <v>282.17783971552626</v>
       </c>
-      <c r="Z30" s="23">
+      <c r="Z31" s="23">
         <v>276.12589240937041</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AA31" s="23">
         <v>268.94015035820155</v>
       </c>
-      <c r="AB30" s="23">
+      <c r="AB31" s="23">
         <v>260.989777342092</v>
       </c>
-      <c r="AC30" s="23">
+      <c r="AC31" s="23">
         <v>252.94340606688408</v>
       </c>
-      <c r="AD30" s="23">
+      <c r="AD31" s="23">
         <v>246.97686596497459</v>
       </c>
-      <c r="AE30" s="23">
+      <c r="AE31" s="23">
         <v>239.89375713342579</v>
       </c>
-      <c r="AF30" s="23">
+      <c r="AF31" s="23">
         <v>235.79398537955376</v>
       </c>
-      <c r="AG30" s="23">
+      <c r="AG31" s="23">
         <v>228.81050601754842</v>
       </c>
-      <c r="AH30" s="23">
+      <c r="AH31" s="23">
         <v>220.3022330208546</v>
       </c>
-      <c r="AI30" s="23">
+      <c r="AI31" s="23">
         <v>211.80453800094998</v>
       </c>
-      <c r="AJ30" s="23">
+      <c r="AJ31" s="23">
         <v>210.26822207614077</v>
       </c>
-      <c r="AK30" s="23">
+      <c r="AK31" s="23">
         <v>207.51321059876534</v>
       </c>
-      <c r="AL30" s="23">
+      <c r="AL31" s="23">
         <v>205.48966251574126</v>
       </c>
-      <c r="AM30" s="23">
+      <c r="AM31" s="23">
         <v>204.58960760088002</v>
       </c>
-      <c r="AN30" s="23">
+      <c r="AN31" s="23">
         <v>201.24202211281937</v>
       </c>
-      <c r="AO30" s="23">
+      <c r="AO31" s="23">
         <v>198.21806931615725</v>
       </c>
-      <c r="AP30" s="23">
+      <c r="AP31" s="23">
         <v>194.21131051601543</v>
       </c>
-      <c r="AQ30" s="23">
+      <c r="AQ31" s="23">
         <v>188.85037722786473</v>
       </c>
-      <c r="AR30" s="23">
+      <c r="AR31" s="23">
         <v>185.45771186352209</v>
       </c>
-      <c r="AS30" s="23">
+      <c r="AS31" s="23">
         <v>182.78466819910923</v>
       </c>
-      <c r="AT30" s="23">
+      <c r="AT31" s="23">
         <v>178.03386051796613</v>
       </c>
-      <c r="AU30" s="23">
+      <c r="AU31" s="23">
         <v>174.36493614009572</v>
       </c>
-      <c r="AV30" s="23">
+      <c r="AV31" s="23">
         <v>168.54561601698518</v>
       </c>
-      <c r="AW30" s="23">
+      <c r="AW31" s="23">
         <v>164.45816036030124</v>
       </c>
-      <c r="AX30" s="23">
+      <c r="AX31" s="23">
         <v>162.92601083010817</v>
       </c>
-      <c r="AY30" s="23">
+      <c r="AY31" s="23">
         <v>157.1265898154179</v>
       </c>
-      <c r="AZ30" s="23">
+      <c r="AZ31" s="23">
         <v>152.8510417485713</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-    </row>
-    <row r="32" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+    </row>
+    <row r="33" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21">
         <v>92.095138287166918</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X33" s="21">
         <v>99.126214990442946</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y33" s="21">
         <v>101.31460702397874</v>
       </c>
-      <c r="Z32" s="21">
+      <c r="Z33" s="21">
         <v>100.3753664599228</v>
       </c>
-      <c r="AA32" s="21">
+      <c r="AA33" s="21">
         <v>99.902039218360343</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AB33" s="21">
         <v>98.503153914893815</v>
       </c>
-      <c r="AC32" s="21">
+      <c r="AC33" s="21">
         <v>97.57248280520021</v>
       </c>
-      <c r="AD32" s="21">
+      <c r="AD33" s="21">
         <v>96.785523113821739</v>
       </c>
-      <c r="AE32" s="21">
+      <c r="AE33" s="21">
         <v>95.81563720667053</v>
       </c>
-      <c r="AF32" s="21">
+      <c r="AF33" s="21">
         <v>94.786978060891968</v>
       </c>
-      <c r="AG32" s="21">
+      <c r="AG33" s="21">
         <v>93.639842423281621</v>
       </c>
-      <c r="AH32" s="21">
+      <c r="AH33" s="21">
         <v>91.564112151181234</v>
       </c>
-      <c r="AI32" s="21">
+      <c r="AI33" s="21">
         <v>89.850651245685896</v>
       </c>
-      <c r="AJ32" s="21">
+      <c r="AJ33" s="21">
         <v>83.293088355220149</v>
       </c>
-      <c r="AK32" s="21">
+      <c r="AK33" s="21">
         <v>81.749919077126009</v>
       </c>
-      <c r="AL32" s="21">
+      <c r="AL33" s="21">
         <v>79.947059659749215</v>
       </c>
-      <c r="AM32" s="21">
+      <c r="AM33" s="21">
         <v>76.797799170108718</v>
       </c>
-      <c r="AN32" s="21">
+      <c r="AN33" s="21">
         <v>75.005227958671526</v>
       </c>
-      <c r="AO32" s="21">
+      <c r="AO33" s="21">
         <v>75.252611928830405</v>
       </c>
-      <c r="AP32" s="21">
+      <c r="AP33" s="21">
         <v>73.944368934745086</v>
       </c>
-      <c r="AQ32" s="21">
+      <c r="AQ33" s="21">
         <v>72.505825526854423</v>
       </c>
-      <c r="AR32" s="21">
+      <c r="AR33" s="21">
         <v>71.058679260867621</v>
       </c>
-      <c r="AS32" s="21">
+      <c r="AS33" s="21">
         <v>70.131322983735501</v>
       </c>
-      <c r="AT32" s="21">
+      <c r="AT33" s="21">
         <v>69.110081443621368</v>
       </c>
-      <c r="AU32" s="21">
+      <c r="AU33" s="21">
         <v>68.032295731781588</v>
       </c>
-      <c r="AV32" s="21">
+      <c r="AV33" s="21">
         <v>67.032262038479971</v>
       </c>
-      <c r="AW32" s="21">
+      <c r="AW33" s="21">
         <v>66.154988268485141</v>
       </c>
-      <c r="AX32" s="21">
+      <c r="AX33" s="21">
         <v>65.335854608839568</v>
       </c>
-      <c r="AY32" s="21">
+      <c r="AY33" s="21">
         <v>64.266621579243647</v>
       </c>
-      <c r="AZ32" s="21">
+      <c r="AZ33" s="21">
         <v>62.848580798509666</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15">
         <v>107.28812449849225</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V34" s="15">
         <v>107.09210980739324</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W34" s="15">
         <v>106.64816345947727</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X34" s="15">
         <v>132.32562986840952</v>
       </c>
-      <c r="Y33" s="15">
+      <c r="Y34" s="15">
         <v>138.82843745157768</v>
       </c>
-      <c r="Z33" s="15">
+      <c r="Z34" s="15">
         <v>140.45933683457699</v>
       </c>
-      <c r="AA33" s="15">
+      <c r="AA34" s="15">
         <v>126.51639567077166</v>
       </c>
-      <c r="AB33" s="15">
+      <c r="AB34" s="15">
         <v>121.56563691456991</v>
       </c>
-      <c r="AC33" s="15">
+      <c r="AC34" s="15">
         <v>111.96596671607543</v>
       </c>
-      <c r="AD33" s="15">
+      <c r="AD34" s="15">
         <v>107.7712442260496</v>
       </c>
-      <c r="AE33" s="15">
+      <c r="AE34" s="15">
         <v>105.75521118106312</v>
       </c>
-      <c r="AF33" s="15">
+      <c r="AF34" s="15">
         <v>124.03534871833284</v>
       </c>
-      <c r="AG33" s="15">
+      <c r="AG34" s="15">
         <v>120.19577601150729</v>
       </c>
-      <c r="AH33" s="15">
+      <c r="AH34" s="15">
         <v>109.00550952885457</v>
       </c>
-      <c r="AI33" s="15">
+      <c r="AI34" s="15">
         <v>113.785723585738</v>
       </c>
-      <c r="AJ33" s="15">
+      <c r="AJ34" s="15">
         <v>111.46414067605033</v>
       </c>
-      <c r="AK33" s="15">
+      <c r="AK34" s="15">
         <v>105.50910400915778</v>
       </c>
-      <c r="AL33" s="15">
+      <c r="AL34" s="15">
         <v>108.46739791810546</v>
       </c>
-      <c r="AM33" s="15">
+      <c r="AM34" s="15">
         <v>103.42240845968412</v>
       </c>
-      <c r="AN33" s="15">
+      <c r="AN34" s="15">
         <v>100.84675254475874</v>
       </c>
-      <c r="AO33" s="15">
+      <c r="AO34" s="15">
         <v>99.884605427302745</v>
       </c>
-      <c r="AP33" s="15">
+      <c r="AP34" s="15">
         <v>97.513476955112267</v>
       </c>
-      <c r="AQ33" s="15">
+      <c r="AQ34" s="15">
         <v>94.803191597048681</v>
       </c>
-      <c r="AR33" s="15">
+      <c r="AR34" s="15">
         <v>92.769515755824244</v>
       </c>
-      <c r="AS33" s="15">
+      <c r="AS34" s="15">
         <v>90.978635968507064</v>
       </c>
-      <c r="AT33" s="15">
+      <c r="AT34" s="15">
         <v>84.345835406378228</v>
       </c>
-      <c r="AU33" s="15">
+      <c r="AU34" s="15">
         <v>80.723653039506644</v>
       </c>
-      <c r="AV33" s="15">
+      <c r="AV34" s="15">
         <v>78.361927761149175</v>
       </c>
-      <c r="AW33" s="15">
+      <c r="AW34" s="15">
         <v>75.74086878474894</v>
       </c>
-      <c r="AX33" s="15">
+      <c r="AX34" s="15">
         <v>73.391827679081629</v>
       </c>
-      <c r="AY33" s="15">
+      <c r="AY34" s="15">
         <v>70.735309664018473</v>
       </c>
-      <c r="AZ33" s="15">
+      <c r="AZ34" s="15">
         <v>80.930182967175355</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-    </row>
-    <row r="36" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+    </row>
+    <row r="37" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-      <c r="AS36" s="24"/>
-      <c r="AT36" s="24"/>
-      <c r="AU36" s="24"/>
-      <c r="AV36" s="24"/>
-      <c r="AW36" s="24"/>
-      <c r="AX36" s="24"/>
-      <c r="AY36" s="24"/>
-      <c r="AZ36" s="24"/>
-    </row>
-    <row r="37" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="20" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="24"/>
+      <c r="AW37" s="24"/>
+      <c r="AX37" s="24"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+    </row>
+    <row r="38" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25">
-        <v>14657700.455976911</v>
-      </c>
-      <c r="S37" s="25">
-        <v>15110073.989768853</v>
-      </c>
-      <c r="T37" s="25">
-        <v>16314362.449261392</v>
-      </c>
-      <c r="U37" s="25">
-        <v>17629482.063461602</v>
-      </c>
-      <c r="V37" s="25">
-        <v>18579785.959209021</v>
-      </c>
-      <c r="W37" s="25">
-        <v>20034283.427807938</v>
-      </c>
-      <c r="X37" s="25">
-        <v>21306683.95498893</v>
-      </c>
-      <c r="Y37" s="25">
-        <v>22041628.998837259</v>
-      </c>
-      <c r="Z37" s="25">
-        <v>22489268.022378981</v>
-      </c>
-      <c r="AA37" s="25">
-        <v>22912890.508668754</v>
-      </c>
-      <c r="AB37" s="25">
-        <v>22900492.245983902</v>
-      </c>
-      <c r="AC37" s="25">
-        <v>23087888.164943762</v>
-      </c>
-      <c r="AD37" s="25">
-        <v>23399312.07112553</v>
-      </c>
-      <c r="AE37" s="25">
-        <v>23557562.861357275</v>
-      </c>
-      <c r="AF37" s="25">
-        <v>23954980.056383297</v>
-      </c>
-      <c r="AG37" s="25">
-        <v>24200830.051130928</v>
-      </c>
-      <c r="AH37" s="25">
-        <v>24554682.410819195</v>
-      </c>
-      <c r="AI37" s="25">
-        <v>25059466.379850179</v>
-      </c>
-      <c r="AJ37" s="25">
-        <v>25518351.651789989</v>
-      </c>
-      <c r="AK37" s="25">
-        <v>25958059.711314291</v>
-      </c>
-      <c r="AL37" s="25">
-        <v>26365805.147053555</v>
-      </c>
-      <c r="AM37" s="25">
-        <v>26732316.304730393</v>
-      </c>
-      <c r="AN37" s="25">
-        <v>27065574.72313093</v>
-      </c>
-      <c r="AO37" s="25">
-        <v>27336445.841670074</v>
-      </c>
-      <c r="AP37" s="25">
-        <v>27633439.874487642</v>
-      </c>
-      <c r="AQ37" s="25">
-        <v>27916680.400118288</v>
-      </c>
-      <c r="AR37" s="25">
-        <v>28153006.368449729</v>
-      </c>
-      <c r="AS37" s="25">
-        <v>28377490.836692989</v>
-      </c>
-      <c r="AT37" s="25">
-        <v>28596039.666436743</v>
-      </c>
-      <c r="AU37" s="25">
-        <v>28875532.658988848</v>
-      </c>
-      <c r="AV37" s="25">
-        <v>29113425.516692415</v>
-      </c>
-      <c r="AW37" s="25">
-        <v>29300369.693428665</v>
-      </c>
-      <c r="AX37" s="25">
-        <v>29508772.634346019</v>
-      </c>
-      <c r="AY37" s="25">
-        <v>29719858.432896696</v>
-      </c>
-      <c r="AZ37" s="25">
-        <v>29920208.715001188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3756,296 +4759,296 @@
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25">
+        <v>14657700.455976911</v>
+      </c>
+      <c r="S38" s="25">
+        <v>15110073.989768853</v>
+      </c>
+      <c r="T38" s="25">
+        <v>16314362.449261392</v>
+      </c>
+      <c r="U38" s="25">
+        <v>17629482.063461602</v>
+      </c>
+      <c r="V38" s="25">
+        <v>18579785.959209021</v>
+      </c>
+      <c r="W38" s="25">
+        <v>20034283.427807938</v>
+      </c>
+      <c r="X38" s="25">
+        <v>21306683.95498893</v>
+      </c>
+      <c r="Y38" s="25">
+        <v>22041628.998837259</v>
+      </c>
+      <c r="Z38" s="25">
+        <v>22489268.022378981</v>
+      </c>
+      <c r="AA38" s="25">
+        <v>22912890.508668754</v>
+      </c>
+      <c r="AB38" s="25">
+        <v>22900492.245983902</v>
+      </c>
+      <c r="AC38" s="25">
+        <v>23087888.164943762</v>
+      </c>
+      <c r="AD38" s="25">
+        <v>23399312.07112553</v>
+      </c>
+      <c r="AE38" s="25">
+        <v>23557562.861357275</v>
+      </c>
+      <c r="AF38" s="25">
+        <v>23954980.056383297</v>
+      </c>
+      <c r="AG38" s="25">
+        <v>24200830.051130928</v>
+      </c>
+      <c r="AH38" s="25">
+        <v>24554682.410819195</v>
+      </c>
+      <c r="AI38" s="25">
+        <v>25059466.379850179</v>
+      </c>
+      <c r="AJ38" s="25">
+        <v>25518351.651789989</v>
+      </c>
+      <c r="AK38" s="25">
+        <v>25958059.711314291</v>
+      </c>
+      <c r="AL38" s="25">
+        <v>26365805.147053555</v>
+      </c>
+      <c r="AM38" s="25">
+        <v>26732316.304730393</v>
+      </c>
+      <c r="AN38" s="25">
+        <v>27065574.72313093</v>
+      </c>
+      <c r="AO38" s="25">
+        <v>27336445.841670074</v>
+      </c>
+      <c r="AP38" s="25">
+        <v>27633439.874487642</v>
+      </c>
+      <c r="AQ38" s="25">
+        <v>27916680.400118288</v>
+      </c>
+      <c r="AR38" s="25">
+        <v>28153006.368449729</v>
+      </c>
+      <c r="AS38" s="25">
+        <v>28377490.836692989</v>
+      </c>
+      <c r="AT38" s="25">
+        <v>28596039.666436743</v>
+      </c>
+      <c r="AU38" s="25">
+        <v>28875532.658988848</v>
+      </c>
+      <c r="AV38" s="25">
+        <v>29113425.516692415</v>
+      </c>
+      <c r="AW38" s="25">
+        <v>29300369.693428665</v>
+      </c>
+      <c r="AX38" s="25">
+        <v>29508772.634346019</v>
+      </c>
+      <c r="AY38" s="25">
+        <v>29719858.432896696</v>
+      </c>
+      <c r="AZ38" s="25">
+        <v>29920208.715001188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25">
         <v>1304742.3432493263</v>
       </c>
-      <c r="S38" s="25">
+      <c r="S39" s="25">
         <v>1662504.5523411871</v>
       </c>
-      <c r="T38" s="25">
+      <c r="T39" s="25">
         <v>1898521.1116411968</v>
       </c>
-      <c r="U38" s="25">
+      <c r="U39" s="25">
         <v>2070338.6206930869</v>
       </c>
-      <c r="V38" s="25">
+      <c r="V39" s="25">
         <v>2305008.3989921687</v>
       </c>
-      <c r="W38" s="25">
+      <c r="W39" s="25">
         <v>2405246.5858434392</v>
       </c>
-      <c r="X38" s="25">
+      <c r="X39" s="25">
         <v>2497865.4139882657</v>
       </c>
-      <c r="Y38" s="25">
+      <c r="Y39" s="25">
         <v>2613141.984101939</v>
       </c>
-      <c r="Z38" s="25">
+      <c r="Z39" s="25">
         <v>2736881.8629833809</v>
       </c>
-      <c r="AA38" s="25">
+      <c r="AA39" s="25">
         <v>2871917.7959774719</v>
       </c>
-      <c r="AB38" s="25">
+      <c r="AB39" s="25">
         <v>2960065.3454507496</v>
       </c>
-      <c r="AC38" s="25">
+      <c r="AC39" s="25">
         <v>3030179.8640581509</v>
       </c>
-      <c r="AD38" s="25">
+      <c r="AD39" s="25">
         <v>3106581.4813890844</v>
       </c>
-      <c r="AE38" s="25">
+      <c r="AE39" s="25">
         <v>3196148.2636367697</v>
       </c>
-      <c r="AF38" s="25">
+      <c r="AF39" s="25">
         <v>3318088.5602513039</v>
       </c>
-      <c r="AG38" s="25">
+      <c r="AG39" s="25">
         <v>3389492.1408001394</v>
       </c>
-      <c r="AH38" s="25">
+      <c r="AH39" s="25">
         <v>3461141.6263684211</v>
       </c>
-      <c r="AI38" s="25">
+      <c r="AI39" s="25">
         <v>3508693.3332012785</v>
       </c>
-      <c r="AJ38" s="25">
+      <c r="AJ39" s="25">
         <v>3585385.7261609286</v>
       </c>
-      <c r="AK38" s="25">
+      <c r="AK39" s="25">
         <v>3663516.631589158</v>
       </c>
-      <c r="AL38" s="25">
+      <c r="AL39" s="25">
         <v>3744777.7341912286</v>
       </c>
-      <c r="AM38" s="25">
+      <c r="AM39" s="25">
         <v>3824221.1095546642</v>
       </c>
-      <c r="AN38" s="25">
+      <c r="AN39" s="25">
         <v>3903033.1090853261</v>
       </c>
-      <c r="AO38" s="25">
+      <c r="AO39" s="25">
         <v>3983664.1974557247</v>
       </c>
-      <c r="AP38" s="25">
+      <c r="AP39" s="25">
         <v>4064412.6226342423</v>
       </c>
-      <c r="AQ38" s="25">
+      <c r="AQ39" s="25">
         <v>4147624.3117375313</v>
       </c>
-      <c r="AR38" s="25">
+      <c r="AR39" s="25">
         <v>4235913.9771921402</v>
       </c>
-      <c r="AS38" s="25">
+      <c r="AS39" s="25">
         <v>4318777.7586987838</v>
       </c>
-      <c r="AT38" s="25">
+      <c r="AT39" s="25">
         <v>4409405.813328783</v>
       </c>
-      <c r="AU38" s="25">
+      <c r="AU39" s="25">
         <v>4503494.17345443</v>
       </c>
-      <c r="AV38" s="25">
+      <c r="AV39" s="25">
         <v>4599971.5487073176</v>
       </c>
-      <c r="AW38" s="25">
+      <c r="AW39" s="25">
         <v>4686743.09201492</v>
       </c>
-      <c r="AX38" s="25">
+      <c r="AX39" s="25">
         <v>4787113.8225420574</v>
       </c>
-      <c r="AY38" s="25">
+      <c r="AY39" s="25">
         <v>4901010.9500020929</v>
       </c>
-      <c r="AZ38" s="25">
+      <c r="AZ39" s="25">
         <v>5026995.416179914</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="24"/>
-      <c r="AX39" s="24"/>
-      <c r="AY39" s="24"/>
-      <c r="AZ39" s="24"/>
-    </row>
-    <row r="40" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="26" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="24"/>
+      <c r="AP40" s="24"/>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="24"/>
+      <c r="AS40" s="24"/>
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="24"/>
+      <c r="AV40" s="24"/>
+      <c r="AW40" s="24"/>
+      <c r="AX40" s="24"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="24"/>
+    </row>
+    <row r="41" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27">
-        <v>118.32289423851969</v>
-      </c>
-      <c r="S40" s="27">
-        <v>117.9758410899442</v>
-      </c>
-      <c r="T40" s="27">
-        <v>116.50371855464934</v>
-      </c>
-      <c r="U40" s="27">
-        <v>114.93411232400429</v>
-      </c>
-      <c r="V40" s="27">
-        <v>113.56186009008893</v>
-      </c>
-      <c r="W40" s="27">
-        <v>101.67871925283879</v>
-      </c>
-      <c r="X40" s="27">
-        <v>98.816982769805804</v>
-      </c>
-      <c r="Y40" s="27">
-        <v>94.991880288068742</v>
-      </c>
-      <c r="Z40" s="27">
-        <v>94.994863967604388</v>
-      </c>
-      <c r="AA40" s="27">
-        <v>94.557273668828415</v>
-      </c>
-      <c r="AB40" s="27">
-        <v>94.995693557937727</v>
-      </c>
-      <c r="AC40" s="27">
-        <v>94.602951288924999</v>
-      </c>
-      <c r="AD40" s="27">
-        <v>94.998514234294944</v>
-      </c>
-      <c r="AE40" s="27">
-        <v>94.355912926280396</v>
-      </c>
-      <c r="AF40" s="27">
-        <v>92.175909693858031</v>
-      </c>
-      <c r="AG40" s="27">
-        <v>89.794587659587862</v>
-      </c>
-      <c r="AH40" s="27">
-        <v>87.24836035239683</v>
-      </c>
-      <c r="AI40" s="27">
-        <v>84.818438759747082</v>
-      </c>
-      <c r="AJ40" s="27">
-        <v>82.366397900317878</v>
-      </c>
-      <c r="AK40" s="27">
-        <v>80.03874198582588</v>
-      </c>
-      <c r="AL40" s="27">
-        <v>77.757659957970844</v>
-      </c>
-      <c r="AM40" s="27">
-        <v>75.636882277510722</v>
-      </c>
-      <c r="AN40" s="27">
-        <v>73.634206783085205</v>
-      </c>
-      <c r="AO40" s="27">
-        <v>71.854622699944557</v>
-      </c>
-      <c r="AP40" s="27">
-        <v>70.194698920882075</v>
-      </c>
-      <c r="AQ40" s="27">
-        <v>68.722154256486661</v>
-      </c>
-      <c r="AR40" s="27">
-        <v>67.305264004324329</v>
-      </c>
-      <c r="AS40" s="27">
-        <v>66.031427835206756</v>
-      </c>
-      <c r="AT40" s="27">
-        <v>64.700810290850086</v>
-      </c>
-      <c r="AU40" s="27">
-        <v>63.497478842467444</v>
-      </c>
-      <c r="AV40" s="27">
-        <v>62.242266559920189</v>
-      </c>
-      <c r="AW40" s="27">
-        <v>61.125534883718707</v>
-      </c>
-      <c r="AX40" s="27">
-        <v>59.947273143567422</v>
-      </c>
-      <c r="AY40" s="27">
-        <v>58.887067825622097</v>
-      </c>
-      <c r="AZ40" s="27">
-        <v>57.752954668264849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -4064,307 +5067,451 @@
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="27">
+        <v>118.32289423851969</v>
+      </c>
+      <c r="S41" s="27">
+        <v>117.9758410899442</v>
+      </c>
+      <c r="T41" s="27">
+        <v>116.50371855464934</v>
+      </c>
+      <c r="U41" s="27">
+        <v>114.93411232400429</v>
+      </c>
+      <c r="V41" s="27">
+        <v>113.56186009008893</v>
+      </c>
+      <c r="W41" s="27">
+        <v>101.67871925283879</v>
+      </c>
+      <c r="X41" s="27">
+        <v>98.816982769805804</v>
+      </c>
+      <c r="Y41" s="27">
+        <v>94.991880288068742</v>
+      </c>
+      <c r="Z41" s="27">
+        <v>94.994863967604388</v>
+      </c>
+      <c r="AA41" s="27">
+        <v>94.557273668828415</v>
+      </c>
+      <c r="AB41" s="27">
+        <v>94.995693557937727</v>
+      </c>
+      <c r="AC41" s="27">
+        <v>94.602951288924999</v>
+      </c>
+      <c r="AD41" s="27">
+        <v>94.998514234294944</v>
+      </c>
+      <c r="AE41" s="27">
+        <v>94.355912926280396</v>
+      </c>
+      <c r="AF41" s="27">
+        <v>92.175909693858031</v>
+      </c>
+      <c r="AG41" s="27">
+        <v>89.794587659587862</v>
+      </c>
+      <c r="AH41" s="27">
+        <v>87.24836035239683</v>
+      </c>
+      <c r="AI41" s="27">
+        <v>84.818438759747082</v>
+      </c>
+      <c r="AJ41" s="27">
+        <v>82.366397900317878</v>
+      </c>
+      <c r="AK41" s="27">
+        <v>80.03874198582588</v>
+      </c>
+      <c r="AL41" s="27">
+        <v>77.757659957970844</v>
+      </c>
+      <c r="AM41" s="27">
+        <v>75.636882277510722</v>
+      </c>
+      <c r="AN41" s="27">
+        <v>73.634206783085205</v>
+      </c>
+      <c r="AO41" s="27">
+        <v>71.854622699944557</v>
+      </c>
+      <c r="AP41" s="27">
+        <v>70.194698920882075</v>
+      </c>
+      <c r="AQ41" s="27">
+        <v>68.722154256486661</v>
+      </c>
+      <c r="AR41" s="27">
+        <v>67.305264004324329</v>
+      </c>
+      <c r="AS41" s="27">
+        <v>66.031427835206756</v>
+      </c>
+      <c r="AT41" s="27">
+        <v>64.700810290850086</v>
+      </c>
+      <c r="AU41" s="27">
+        <v>63.497478842467444</v>
+      </c>
+      <c r="AV41" s="27">
+        <v>62.242266559920189</v>
+      </c>
+      <c r="AW41" s="27">
+        <v>61.125534883718707</v>
+      </c>
+      <c r="AX41" s="27">
+        <v>59.947273143567422</v>
+      </c>
+      <c r="AY41" s="27">
+        <v>58.887067825622097</v>
+      </c>
+      <c r="AZ41" s="27">
+        <v>57.752954668264849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27">
         <v>165.01162606771334</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S42" s="27">
         <v>163.48833609079387</v>
       </c>
-      <c r="T41" s="27">
+      <c r="T42" s="27">
         <v>161.2238600439718</v>
       </c>
-      <c r="U41" s="27">
+      <c r="U42" s="27">
         <v>159.1274114467906</v>
       </c>
-      <c r="V41" s="27">
+      <c r="V42" s="27">
         <v>146.70556894417419</v>
       </c>
-      <c r="W41" s="27">
+      <c r="W42" s="27">
         <v>146.72298528774246</v>
       </c>
-      <c r="X41" s="27">
+      <c r="X42" s="27">
         <v>146.72743261821739</v>
       </c>
-      <c r="Y41" s="27">
+      <c r="Y42" s="27">
         <v>146.93603003142022</v>
       </c>
-      <c r="Z41" s="27">
+      <c r="Z42" s="27">
         <v>145.28272544871902</v>
       </c>
-      <c r="AA41" s="27">
+      <c r="AA42" s="27">
         <v>142.24282293602423</v>
       </c>
-      <c r="AB41" s="27">
+      <c r="AB42" s="27">
         <v>139.23078656501139</v>
       </c>
-      <c r="AC41" s="27">
+      <c r="AC42" s="27">
         <v>136.16576366039479</v>
       </c>
-      <c r="AD41" s="27">
+      <c r="AD42" s="27">
         <v>133.04949225524427</v>
       </c>
-      <c r="AE41" s="27">
+      <c r="AE42" s="27">
         <v>129.95743576051268</v>
       </c>
-      <c r="AF41" s="27">
+      <c r="AF42" s="27">
         <v>126.73311796828042</v>
       </c>
-      <c r="AG41" s="27">
+      <c r="AG42" s="27">
         <v>123.19502674124446</v>
       </c>
-      <c r="AH41" s="27">
+      <c r="AH42" s="27">
         <v>119.42414803055013</v>
       </c>
-      <c r="AI41" s="27">
+      <c r="AI42" s="27">
         <v>115.85669628852681</v>
       </c>
-      <c r="AJ41" s="27">
+      <c r="AJ42" s="27">
         <v>112.26255426808225</v>
       </c>
-      <c r="AK41" s="27">
+      <c r="AK42" s="27">
         <v>108.86629124123839</v>
       </c>
-      <c r="AL41" s="27">
+      <c r="AL42" s="27">
         <v>105.56894216681256</v>
       </c>
-      <c r="AM41" s="27">
+      <c r="AM42" s="27">
         <v>102.50516942939392</v>
       </c>
-      <c r="AN41" s="27">
+      <c r="AN42" s="27">
         <v>99.638105576221392</v>
       </c>
-      <c r="AO41" s="27">
+      <c r="AO42" s="27">
         <v>97.080197260300267</v>
       </c>
-      <c r="AP41" s="27">
+      <c r="AP42" s="27">
         <v>94.727248830844999</v>
       </c>
-      <c r="AQ41" s="27">
+      <c r="AQ42" s="27">
         <v>92.610978179433772</v>
       </c>
-      <c r="AR41" s="27">
+      <c r="AR42" s="27">
         <v>90.580837255979958</v>
       </c>
-      <c r="AS41" s="27">
+      <c r="AS42" s="27">
         <v>88.816288685733937</v>
       </c>
-      <c r="AT41" s="27">
+      <c r="AT42" s="27">
         <v>86.997050437939549</v>
       </c>
-      <c r="AU41" s="27">
+      <c r="AU42" s="27">
         <v>85.292549036513975</v>
       </c>
-      <c r="AV41" s="27">
+      <c r="AV42" s="27">
         <v>83.630607074136648</v>
       </c>
-      <c r="AW41" s="27">
+      <c r="AW42" s="27">
         <v>82.064437617351999</v>
       </c>
-      <c r="AX41" s="27">
+      <c r="AX42" s="27">
         <v>80.487576382352955</v>
       </c>
-      <c r="AY41" s="27">
+      <c r="AY42" s="27">
         <v>78.983616698706157</v>
       </c>
-      <c r="AZ41" s="27">
+      <c r="AZ42" s="27">
         <v>77.508550101149098</v>
       </c>
     </row>
-    <row r="42" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+    <row r="43" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="24"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
-      <c r="AR42" s="24"/>
-      <c r="AS42" s="24"/>
-      <c r="AT42" s="24"/>
-      <c r="AU42" s="24"/>
-      <c r="AV42" s="24"/>
-      <c r="AW42" s="24"/>
-      <c r="AX42" s="24"/>
-      <c r="AY42" s="24"/>
-      <c r="AZ42" s="24"/>
-    </row>
-    <row r="43" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="20" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+    </row>
+    <row r="44" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27">
         <v>199.88297586504606</v>
       </c>
-      <c r="X43" s="27">
+      <c r="X44" s="27">
         <v>182.41072176732089</v>
       </c>
-      <c r="Y43" s="27">
+      <c r="Y44" s="27">
         <v>177.51067430474782</v>
       </c>
-      <c r="Z43" s="27">
+      <c r="Z44" s="27">
         <v>143.40042404066202</v>
       </c>
-      <c r="AA43" s="27">
+      <c r="AA44" s="27">
         <v>115.84476086062429</v>
       </c>
-      <c r="AB43" s="27">
+      <c r="AB44" s="27">
         <v>80.124709356910245</v>
       </c>
-      <c r="AC43" s="27">
+      <c r="AC44" s="27">
         <v>55.418725903827145</v>
       </c>
-      <c r="AD43" s="27">
+      <c r="AD44" s="27">
         <v>20.711248007725139</v>
       </c>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
-      <c r="AR43" s="27"/>
-      <c r="AS43" s="27"/>
-      <c r="AT43" s="27"/>
-      <c r="AU43" s="27"/>
-      <c r="AV43" s="27"/>
-      <c r="AW43" s="27"/>
-      <c r="AX43" s="27"/>
-      <c r="AY43" s="27"/>
-      <c r="AZ43" s="27"/>
-    </row>
-    <row r="44" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="22" t="s">
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="27"/>
+      <c r="AP44" s="27"/>
+      <c r="AQ44" s="27"/>
+      <c r="AR44" s="27"/>
+      <c r="AS44" s="27"/>
+      <c r="AT44" s="27"/>
+      <c r="AU44" s="27"/>
+      <c r="AV44" s="27"/>
+      <c r="AW44" s="27"/>
+      <c r="AX44" s="27"/>
+      <c r="AY44" s="27"/>
+      <c r="AZ44" s="27"/>
+    </row>
+    <row r="45" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28">
         <v>165.00955491382882</v>
       </c>
-      <c r="W44" s="28">
+      <c r="W45" s="28">
         <v>112.82297320356355</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X45" s="28">
         <v>64.444303764818287</v>
       </c>
-      <c r="Y44" s="28">
+      <c r="Y45" s="28">
         <v>20.527663813726789</v>
       </c>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28"/>
-      <c r="AN44" s="28"/>
-      <c r="AO44" s="28"/>
-      <c r="AP44" s="28"/>
-      <c r="AQ44" s="28"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="28"/>
-      <c r="AT44" s="28"/>
-      <c r="AU44" s="28"/>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="28"/>
-      <c r="AX44" s="28"/>
-      <c r="AY44" s="28"/>
-      <c r="AZ44" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="28"/>
+    </row>
+    <row r="54" spans="10:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="29">
+        <v>0.104397</v>
+      </c>
+      <c r="M54" s="29">
+        <v>-0.32546700000000001</v>
+      </c>
+      <c r="N54" s="29">
+        <v>21.989605000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.75196850393700787" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4375,14 +5522,17 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AG6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4483,7 +5633,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4584,140 +5734,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!U$4*About!$A$20*About!$A$24</f>
-        <v>28.576280473316888</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!U2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!U2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>30.417848780084995</v>
       </c>
       <c r="C3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!V$4*About!$A$20*About!$A$24</f>
-        <v>31.789509062654592</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!V2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!V2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>30.400695144728999</v>
       </c>
       <c r="D3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!W$4*About!$A$20*About!$A$24</f>
-        <v>28.628054141710741</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!W2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!W2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>30.675295838186997</v>
       </c>
       <c r="E3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!X$4*About!$A$20*About!$A$24</f>
-        <v>39.648215741785734</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!X2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!X2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>31.241650860458996</v>
       </c>
       <c r="F3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!Y$4*About!$A$20*About!$A$24</f>
-        <v>42.664794558092744</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!Y2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!Y2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>32.099760211544996</v>
       </c>
       <c r="G3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!Z$4*About!$A$20*About!$A$24</f>
-        <v>42.412750932022973</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!Z2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!Z2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>33.249623891444998</v>
       </c>
       <c r="H3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AA$4*About!$A$20*About!$A$24</f>
-        <v>38.188971824142286</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AA2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AA2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>34.691241900159</v>
       </c>
       <c r="I3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AB$4*About!$A$20*About!$A$24</f>
-        <v>34.387570627049669</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AB2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AB2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>36.424614237687003</v>
       </c>
       <c r="J3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AC$4*About!$A$20*About!$A$24</f>
-        <v>30.96630954966631</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AC2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AC2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>38.449740904028999</v>
       </c>
       <c r="K3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AD$4*About!$A$20*About!$A$24</f>
-        <v>27.887174580021288</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AD2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AD2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>40.766621899184997</v>
       </c>
       <c r="L3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AE$4*About!$A$20*About!$A$24</f>
-        <v>31.76630301091058</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AE2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AE2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>43.375257223154996</v>
       </c>
       <c r="M3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AF$4*About!$A$20*About!$A$24</f>
-        <v>35.18650025795111</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AF2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AF2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>46.275646875939003</v>
       </c>
       <c r="N3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AG$4*About!$A$20*About!$A$24</f>
-        <v>34.069485335669263</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AG2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AG2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>49.467790857537004</v>
       </c>
       <c r="O3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AH$4*About!$A$20*About!$A$24</f>
-        <v>46.282229050062128</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AH2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AH2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>52.951689167948999</v>
       </c>
       <c r="P3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AI$4*About!$A$20*About!$A$24</f>
-        <v>53.806984724170185</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AI2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AI2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>56.727341807174994</v>
       </c>
       <c r="Q3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AJ$4*About!$A$20*About!$A$24</f>
-        <v>65.88494284520668</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AJ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AJ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>60.794748775215005</v>
       </c>
       <c r="R3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AK$4*About!$A$20*About!$A$24</f>
-        <v>73.075162106833403</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AK2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AK2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>65.153910072068996</v>
       </c>
       <c r="S3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AL$4*About!$A$20*About!$A$24</f>
-        <v>73.071346853065322</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AL2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AL2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>69.804825697736987</v>
       </c>
       <c r="T3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AM$4*About!$A$20*About!$A$24</f>
-        <v>82.89086323079222</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AM2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AM2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>74.747495652218987</v>
       </c>
       <c r="U3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AN$4*About!$A$20*About!$A$24</f>
-        <v>91.052887731570451</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AN2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AN2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>79.981919935514995</v>
       </c>
       <c r="V3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AO$4*About!$A$20*About!$A$24</f>
-        <v>96.041355286760535</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AO2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AO2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>85.508098547624996</v>
       </c>
       <c r="W3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AP$4*About!$A$20*About!$A$24</f>
-        <v>101.86150469859615</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AP2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AP2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>91.326031488548992</v>
       </c>
       <c r="X3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AQ$4*About!$A$20*About!$A$24</f>
-        <v>101.30331729017797</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AQ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AQ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>97.435718758286995</v>
       </c>
       <c r="Y3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AR$4*About!$A$20*About!$A$24</f>
-        <v>105.29876225185885</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AR2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AR2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>103.83716035683899</v>
       </c>
       <c r="Z3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AS$4*About!$A$20*About!$A$24</f>
-        <v>109.45092126652646</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AS2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AS2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>110.530356284205</v>
       </c>
       <c r="AA3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AT$4*About!$A$20*About!$A$24</f>
-        <v>118.59097028648149</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AT2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AT2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>117.51530654038498</v>
       </c>
       <c r="AB3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AU$4*About!$A$20*About!$A$24</f>
-        <v>117.66173023637086</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AU2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AU2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>124.79201112537898</v>
       </c>
       <c r="AC3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AV$4*About!$A$20*About!$A$24</f>
-        <v>122.72344200783184</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AV2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AV2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>132.36047003918699</v>
       </c>
       <c r="AD3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AW$4*About!$A$20*About!$A$24</f>
-        <v>140.63144610647541</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AW2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AW2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>140.22068328180899</v>
       </c>
       <c r="AE3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AX$4*About!$A$20*About!$A$24</f>
-        <v>139.68088430419078</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AX2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AX2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>148.37265085324501</v>
       </c>
       <c r="AF3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AY$4*About!$A$20*About!$A$24</f>
-        <v>156.48265851047952</v>
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AY2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AY2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>156.81637275349496</v>
       </c>
       <c r="AG3" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AZ$4*About!$A$20*About!$A$24</f>
-        <v>169.99884150952934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+        <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AZ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AZ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
+        <v>165.55184898255899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4818,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4919,140 +6069,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!U$4*About!$A$20*About!$A$24</f>
-        <v>28.576280473316888</v>
+        <f>B3</f>
+        <v>30.417848780084995</v>
       </c>
       <c r="C6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!V$4*About!$A$20*About!$A$24</f>
-        <v>31.789509062654592</v>
+        <f t="shared" ref="C6:AG6" si="0">C3</f>
+        <v>30.400695144728999</v>
       </c>
       <c r="D6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!W$4*About!$A$20*About!$A$24</f>
-        <v>28.628054141710741</v>
+        <f t="shared" si="0"/>
+        <v>30.675295838186997</v>
       </c>
       <c r="E6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!X$4*About!$A$20*About!$A$24</f>
-        <v>39.648215741785734</v>
+        <f t="shared" si="0"/>
+        <v>31.241650860458996</v>
       </c>
       <c r="F6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!Y$4*About!$A$20*About!$A$24</f>
-        <v>42.664794558092744</v>
+        <f t="shared" si="0"/>
+        <v>32.099760211544996</v>
       </c>
       <c r="G6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!Z$4*About!$A$20*About!$A$24</f>
-        <v>42.412750932022973</v>
+        <f t="shared" si="0"/>
+        <v>33.249623891444998</v>
       </c>
       <c r="H6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AA$4*About!$A$20*About!$A$24</f>
-        <v>38.188971824142286</v>
+        <f t="shared" si="0"/>
+        <v>34.691241900159</v>
       </c>
       <c r="I6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AB$4*About!$A$20*About!$A$24</f>
-        <v>34.387570627049669</v>
+        <f t="shared" si="0"/>
+        <v>36.424614237687003</v>
       </c>
       <c r="J6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AC$4*About!$A$20*About!$A$24</f>
-        <v>30.96630954966631</v>
+        <f t="shared" si="0"/>
+        <v>38.449740904028999</v>
       </c>
       <c r="K6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AD$4*About!$A$20*About!$A$24</f>
-        <v>27.887174580021288</v>
+        <f t="shared" si="0"/>
+        <v>40.766621899184997</v>
       </c>
       <c r="L6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AE$4*About!$A$20*About!$A$24</f>
-        <v>31.76630301091058</v>
+        <f t="shared" si="0"/>
+        <v>43.375257223154996</v>
       </c>
       <c r="M6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AF$4*About!$A$20*About!$A$24</f>
-        <v>35.18650025795111</v>
+        <f t="shared" si="0"/>
+        <v>46.275646875939003</v>
       </c>
       <c r="N6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AG$4*About!$A$20*About!$A$24</f>
-        <v>34.069485335669263</v>
+        <f t="shared" si="0"/>
+        <v>49.467790857537004</v>
       </c>
       <c r="O6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AH$4*About!$A$20*About!$A$24</f>
-        <v>46.282229050062128</v>
+        <f t="shared" si="0"/>
+        <v>52.951689167948999</v>
       </c>
       <c r="P6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AI$4*About!$A$20*About!$A$24</f>
-        <v>53.806984724170185</v>
+        <f t="shared" si="0"/>
+        <v>56.727341807174994</v>
       </c>
       <c r="Q6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AJ$4*About!$A$20*About!$A$24</f>
-        <v>65.88494284520668</v>
+        <f t="shared" si="0"/>
+        <v>60.794748775215005</v>
       </c>
       <c r="R6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AK$4*About!$A$20*About!$A$24</f>
-        <v>73.075162106833403</v>
+        <f t="shared" si="0"/>
+        <v>65.153910072068996</v>
       </c>
       <c r="S6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AL$4*About!$A$20*About!$A$24</f>
-        <v>73.071346853065322</v>
+        <f t="shared" si="0"/>
+        <v>69.804825697736987</v>
       </c>
       <c r="T6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AM$4*About!$A$20*About!$A$24</f>
-        <v>82.89086323079222</v>
+        <f t="shared" si="0"/>
+        <v>74.747495652218987</v>
       </c>
       <c r="U6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AN$4*About!$A$20*About!$A$24</f>
-        <v>91.052887731570451</v>
+        <f t="shared" si="0"/>
+        <v>79.981919935514995</v>
       </c>
       <c r="V6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AO$4*About!$A$20*About!$A$24</f>
-        <v>96.041355286760535</v>
+        <f t="shared" si="0"/>
+        <v>85.508098547624996</v>
       </c>
       <c r="W6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AP$4*About!$A$20*About!$A$24</f>
-        <v>101.86150469859615</v>
+        <f t="shared" si="0"/>
+        <v>91.326031488548992</v>
       </c>
       <c r="X6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AQ$4*About!$A$20*About!$A$24</f>
-        <v>101.30331729017797</v>
+        <f t="shared" si="0"/>
+        <v>97.435718758286995</v>
       </c>
       <c r="Y6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AR$4*About!$A$20*About!$A$24</f>
-        <v>105.29876225185885</v>
+        <f t="shared" si="0"/>
+        <v>103.83716035683899</v>
       </c>
       <c r="Z6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AS$4*About!$A$20*About!$A$24</f>
-        <v>109.45092126652646</v>
+        <f t="shared" si="0"/>
+        <v>110.530356284205</v>
       </c>
       <c r="AA6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AT$4*About!$A$20*About!$A$24</f>
-        <v>118.59097028648149</v>
+        <f t="shared" si="0"/>
+        <v>117.51530654038498</v>
       </c>
       <c r="AB6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AU$4*About!$A$20*About!$A$24</f>
-        <v>117.66173023637086</v>
+        <f t="shared" si="0"/>
+        <v>124.79201112537898</v>
       </c>
       <c r="AC6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AV$4*About!$A$20*About!$A$24</f>
-        <v>122.72344200783184</v>
+        <f t="shared" si="0"/>
+        <v>132.36047003918699</v>
       </c>
       <c r="AD6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AW$4*About!$A$20*About!$A$24</f>
-        <v>140.63144610647541</v>
+        <f t="shared" si="0"/>
+        <v>140.22068328180899</v>
       </c>
       <c r="AE6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AX$4*About!$A$20*About!$A$24</f>
-        <v>139.68088430419078</v>
+        <f t="shared" si="0"/>
+        <v>148.37265085324501</v>
       </c>
       <c r="AF6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AY$4*About!$A$20*About!$A$24</f>
-        <v>156.48265851047952</v>
+        <f t="shared" si="0"/>
+        <v>156.81637275349496</v>
       </c>
       <c r="AG6" s="31">
-        <f>'JRC POTEnCIA_PolVar'!AZ$4*About!$A$20*About!$A$24</f>
-        <v>169.99884150952934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>165.55184898255899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5153,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -5254,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BF4DB-7924-4AEB-8B67-5B11249551F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D2284C-77EE-4592-88FD-237EF133B677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>We take the ETS value from the Potencia scenarios, but smooth the data to avoid spikes in fossil generation.</t>
+  </si>
+  <si>
+    <t>EU28 and UK have the ETS permit price projections. No changes were made to EU28 to adjust for EU27.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -468,12 +471,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,7 +1786,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,8 +1864,13 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1922,11 +1929,11 @@
   <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A27" sqref="A27"/>
       <selection pane="topRight" activeCell="A27" sqref="A27"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:AZ2"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2095,120 +2102,120 @@
       </c>
     </row>
     <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32">
         <v>1</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="32">
         <v>2</v>
       </c>
-      <c r="W2" s="33">
+      <c r="W2" s="32">
         <v>3</v>
       </c>
-      <c r="X2" s="33">
+      <c r="X2" s="32">
         <v>4</v>
       </c>
-      <c r="Y2" s="33">
+      <c r="Y2" s="32">
         <v>5</v>
       </c>
-      <c r="Z2" s="33">
+      <c r="Z2" s="32">
         <v>6</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="32">
         <v>7</v>
       </c>
-      <c r="AB2" s="33">
+      <c r="AB2" s="32">
         <v>8</v>
       </c>
-      <c r="AC2" s="33">
+      <c r="AC2" s="32">
         <v>9</v>
       </c>
-      <c r="AD2" s="33">
+      <c r="AD2" s="32">
         <v>10</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="32">
         <v>11</v>
       </c>
-      <c r="AF2" s="33">
+      <c r="AF2" s="32">
         <v>12</v>
       </c>
-      <c r="AG2" s="33">
+      <c r="AG2" s="32">
         <v>13</v>
       </c>
-      <c r="AH2" s="33">
+      <c r="AH2" s="32">
         <v>14</v>
       </c>
-      <c r="AI2" s="33">
+      <c r="AI2" s="32">
         <v>15</v>
       </c>
-      <c r="AJ2" s="33">
+      <c r="AJ2" s="32">
         <v>16</v>
       </c>
-      <c r="AK2" s="33">
+      <c r="AK2" s="32">
         <v>17</v>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="32">
         <v>18</v>
       </c>
-      <c r="AM2" s="33">
+      <c r="AM2" s="32">
         <v>19</v>
       </c>
-      <c r="AN2" s="33">
+      <c r="AN2" s="32">
         <v>20</v>
       </c>
-      <c r="AO2" s="33">
+      <c r="AO2" s="32">
         <v>21</v>
       </c>
-      <c r="AP2" s="33">
+      <c r="AP2" s="32">
         <v>22</v>
       </c>
-      <c r="AQ2" s="33">
+      <c r="AQ2" s="32">
         <v>23</v>
       </c>
-      <c r="AR2" s="33">
+      <c r="AR2" s="32">
         <v>24</v>
       </c>
-      <c r="AS2" s="33">
+      <c r="AS2" s="32">
         <v>25</v>
       </c>
-      <c r="AT2" s="33">
+      <c r="AT2" s="32">
         <v>26</v>
       </c>
-      <c r="AU2" s="33">
+      <c r="AU2" s="32">
         <v>27</v>
       </c>
-      <c r="AV2" s="33">
+      <c r="AV2" s="32">
         <v>28</v>
       </c>
-      <c r="AW2" s="33">
+      <c r="AW2" s="32">
         <v>29</v>
       </c>
-      <c r="AX2" s="33">
+      <c r="AX2" s="32">
         <v>30</v>
       </c>
-      <c r="AY2" s="33">
+      <c r="AY2" s="32">
         <v>31</v>
       </c>
-      <c r="AZ2" s="33">
+      <c r="AZ2" s="32">
         <v>32</v>
       </c>
     </row>
@@ -5522,8 +5529,8 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AG6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5738,131 +5745,131 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!U2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!U2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>30.417848780084995</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!V2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!V2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>30.400695144728999</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!W2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!W2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>30.675295838186997</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!X2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!X2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>31.241650860458996</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!Y2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!Y2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>32.099760211544996</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!Z2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!Z2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>33.249623891444998</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AA2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AA2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>34.691241900159</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AB2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AB2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>36.424614237687003</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AC2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AC2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>38.449740904028999</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AD2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AD2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>40.766621899184997</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AE2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AE2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>43.375257223154996</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AF2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AF2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>46.275646875939003</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AG2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AG2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>49.467790857537004</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AH2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AH2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>52.951689167948999</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AI2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AI2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>56.727341807174994</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AJ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AJ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>60.794748775215005</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AK2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AK2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>65.153910072068996</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AL2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AL2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>69.804825697736987</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AM2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AM2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>74.747495652218987</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AN2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AN2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>79.981919935514995</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AO2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AO2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>85.508098547624996</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AP2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AP2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>91.326031488548992</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AQ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AQ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>97.435718758286995</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AR2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AR2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>103.83716035683899</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AS2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AS2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>110.530356284205</v>
       </c>
-      <c r="AA3" s="31">
+      <c r="AA3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AT2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AT2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>117.51530654038498</v>
       </c>
-      <c r="AB3" s="31">
+      <c r="AB3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AU2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AU2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>124.79201112537898</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AC3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AV2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AV2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>132.36047003918699</v>
       </c>
-      <c r="AD3" s="31">
+      <c r="AD3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AW2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AW2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>140.22068328180899</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AE3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AX2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AX2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>148.37265085324501</v>
       </c>
-      <c r="AF3" s="31">
+      <c r="AF3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AY2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AY2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>156.81637275349496</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="30">
         <f>('JRC POTEnCIA_PolVar'!$L$54*'JRC POTEnCIA_PolVar'!AZ2^2+'JRC POTEnCIA_PolVar'!$M$54*'JRC POTEnCIA_PolVar'!AZ2+'JRC POTEnCIA_PolVar'!$N$54)*About!$A$20*About!$A$24</f>
         <v>165.55184898255899</v>
       </c>
@@ -6073,131 +6080,131 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <f>B3</f>
         <v>30.417848780084995</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <f t="shared" ref="C6:AG6" si="0">C3</f>
         <v>30.400695144728999</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>30.675295838186997</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>31.241650860458996</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>32.099760211544996</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>33.249623891444998</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>34.691241900159</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <f t="shared" si="0"/>
         <v>36.424614237687003</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>38.449740904028999</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <f t="shared" si="0"/>
         <v>40.766621899184997</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>43.375257223154996</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>46.275646875939003</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>49.467790857537004</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="30">
         <f t="shared" si="0"/>
         <v>52.951689167948999</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="30">
         <f t="shared" si="0"/>
         <v>56.727341807174994</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <f t="shared" si="0"/>
         <v>60.794748775215005</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="30">
         <f t="shared" si="0"/>
         <v>65.153910072068996</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="30">
         <f t="shared" si="0"/>
         <v>69.804825697736987</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="30">
         <f t="shared" si="0"/>
         <v>74.747495652218987</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <f t="shared" si="0"/>
         <v>79.981919935514995</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="30">
         <f t="shared" si="0"/>
         <v>85.508098547624996</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="30">
         <f t="shared" si="0"/>
         <v>91.326031488548992</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="30">
         <f t="shared" si="0"/>
         <v>97.435718758286995</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="30">
         <f t="shared" si="0"/>
         <v>103.83716035683899</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="30">
         <f t="shared" si="0"/>
         <v>110.530356284205</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="30">
         <f t="shared" si="0"/>
         <v>117.51530654038498</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AB6" s="30">
         <f t="shared" si="0"/>
         <v>124.79201112537898</v>
       </c>
-      <c r="AC6" s="31">
+      <c r="AC6" s="30">
         <f t="shared" si="0"/>
         <v>132.36047003918699</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AD6" s="30">
         <f t="shared" si="0"/>
         <v>140.22068328180899</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AE6" s="30">
         <f t="shared" si="0"/>
         <v>148.37265085324501</v>
       </c>
-      <c r="AF6" s="31">
+      <c r="AF6" s="30">
         <f t="shared" si="0"/>
         <v>156.81637275349496</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AG6" s="30">
         <f t="shared" si="0"/>
         <v>165.55184898255899</v>
       </c>

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_TEP/fuels/BCTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28A361-BC9D-4B04-9AEE-B7A96C556F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="43095" yWindow="1080" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -669,21 +669,21 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -691,54 +691,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -752,7 +750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -770,7 +768,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -791,7 +789,7 @@
         <v>1.2847999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>2013</v>
       </c>
@@ -806,7 +804,7 @@
         <v>1.3281000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>2014</v>
       </c>
@@ -821,7 +819,7 @@
         <v>1.3285</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>2015</v>
       </c>
@@ -836,7 +834,7 @@
         <v>1.1094999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2016</v>
       </c>
@@ -851,7 +849,7 @@
         <v>1.1069</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>2017</v>
       </c>
@@ -866,7 +864,7 @@
         <v>1.1296999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>2018</v>
       </c>
@@ -881,7 +879,7 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2019</v>
       </c>
@@ -896,7 +894,7 @@
         <v>1.1194999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2020</v>
       </c>
@@ -907,7 +905,7 @@
         <v>1.1422000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2021</v>
       </c>
@@ -918,7 +916,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>2022</v>
       </c>
@@ -940,12 +938,12 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W11" sqref="W11:AE11"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -976,7 +974,7 @@
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>D11</f>
         <v>35</v>
@@ -1387,15 +1385,15 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>106.8179486552494</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>106.8179486552494</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2317,19 +2315,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ecf9d80fe0681d8e397c19ef62846c2e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="928f64266605fa42fea75ae7d7349071" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
     <xsd:element name="properties">
@@ -2350,6 +2346,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2375,7 +2372,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2409,6 +2406,11 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2424,7 +2426,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2443,7 +2445,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2460,8 +2462,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2551,31 +2553,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A85805-7A27-4C60-ACAF-12AAD90826B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_TEP/fuels/BCTR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28A361-BC9D-4B04-9AEE-B7A96C556F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6500BCC-809B-4E81-8AF7-2880CEA1FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="1080" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="29970" yWindow="1440" windowWidth="27045" windowHeight="14490" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +410,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -516,7 +516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,18 +672,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -691,52 +691,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -750,7 +750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1.2847999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G20">
         <v>2013</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1.3281000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G21">
         <v>2014</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1.3285</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G22">
         <v>2015</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1.1094999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>2016</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1.1069</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G24">
         <v>2017</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1.1296999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G25">
         <v>2018</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G26">
         <v>2019</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1.1194999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G27">
         <v>2020</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1.1422000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G28">
         <v>2021</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G29">
         <v>2022</v>
       </c>
@@ -941,9 +941,9 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C11">
         <f>D11</f>
         <v>35</v>
@@ -1385,15 +1385,15 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1488,102 +1488,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="24">
-        <v>0</v>
+        <f t="shared" ref="B2" si="0">B3</f>
+        <v>41.540313365930324</v>
       </c>
       <c r="C2" s="24">
-        <v>0</v>
+        <f>C3</f>
+        <v>41.540313365930324</v>
       </c>
       <c r="D2" s="24">
-        <v>0</v>
+        <f t="shared" ref="D2:AE2" si="1">D3</f>
+        <v>41.540313365930324</v>
       </c>
       <c r="E2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>41.540313365930324</v>
       </c>
       <c r="F2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>41.540313365930324</v>
       </c>
       <c r="G2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>45.100911654438633</v>
       </c>
       <c r="H2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>48.66150994294695</v>
       </c>
       <c r="I2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>52.222108231455259</v>
       </c>
       <c r="J2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>55.782706519963583</v>
       </c>
       <c r="K2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>59.343304808471892</v>
       </c>
       <c r="L2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>61.717037000810762</v>
       </c>
       <c r="M2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>64.09076919314964</v>
       </c>
       <c r="N2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>66.464501385488518</v>
       </c>
       <c r="O2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>68.838233577827395</v>
       </c>
       <c r="P2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>71.211965770166259</v>
       </c>
       <c r="Q2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>73.585697962505151</v>
       </c>
       <c r="R2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>75.959430154844014</v>
       </c>
       <c r="S2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>78.333162347182892</v>
       </c>
       <c r="T2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>80.70689453952177</v>
       </c>
       <c r="U2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>83.080626731860647</v>
       </c>
       <c r="V2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85.454358924199525</v>
       </c>
       <c r="W2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>87.828091116538388</v>
       </c>
       <c r="X2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90.201823308877266</v>
       </c>
       <c r="Y2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>92.575555501216144</v>
       </c>
       <c r="Z2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>94.949287693555036</v>
       </c>
       <c r="AA2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>97.323019885893899</v>
       </c>
       <c r="AB2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>99.696752078232777</v>
       </c>
       <c r="AC2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>102.07048427057165</v>
       </c>
       <c r="AD2" s="24">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>104.44421646291052</v>
       </c>
       <c r="AE2" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>106.8179486552494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1738,7 @@
         <v>106.8179486552494</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1907,123 +1937,123 @@
         <v>41.540313365930324</v>
       </c>
       <c r="C6" s="24">
-        <f t="shared" ref="C6:AE6" si="0">C3</f>
+        <f t="shared" ref="C6:AE6" si="2">C3</f>
         <v>41.540313365930324</v>
       </c>
       <c r="D6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.540313365930324</v>
       </c>
       <c r="E6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.540313365930324</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.540313365930324</v>
       </c>
       <c r="G6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45.100911654438633</v>
       </c>
       <c r="H6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.66150994294695</v>
       </c>
       <c r="I6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52.222108231455259</v>
       </c>
       <c r="J6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55.782706519963583</v>
       </c>
       <c r="K6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59.343304808471892</v>
       </c>
       <c r="L6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.717037000810762</v>
       </c>
       <c r="M6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64.09076919314964</v>
       </c>
       <c r="N6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66.464501385488518</v>
       </c>
       <c r="O6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68.838233577827395</v>
       </c>
       <c r="P6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71.211965770166259</v>
       </c>
       <c r="Q6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.585697962505151</v>
       </c>
       <c r="R6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75.959430154844014</v>
       </c>
       <c r="S6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78.333162347182892</v>
       </c>
       <c r="T6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.70689453952177</v>
       </c>
       <c r="U6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83.080626731860647</v>
       </c>
       <c r="V6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85.454358924199525</v>
       </c>
       <c r="W6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>87.828091116538388</v>
       </c>
       <c r="X6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90.201823308877266</v>
       </c>
       <c r="Y6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.575555501216144</v>
       </c>
       <c r="Z6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94.949287693555036</v>
       </c>
       <c r="AA6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>97.323019885893899</v>
       </c>
       <c r="AB6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99.696752078232777</v>
       </c>
       <c r="AC6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102.07048427057165</v>
       </c>
       <c r="AD6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104.44421646291052</v>
       </c>
       <c r="AE6" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106.8179486552494</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2315,12 +2345,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2553,29 +2585,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2584,4 +2602,31 @@
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6500BCC-809B-4E81-8AF7-2880CEA1FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70482E-8A53-4DE8-AD6D-A1C0AA40FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1440" windowWidth="27045" windowHeight="14490" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="62220" yWindow="7155" windowWidth="23790" windowHeight="9675" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="calc" sheetId="3" r:id="rId2"/>
     <sheet name="BCTR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE2"/>
+      <selection activeCell="B7" sqref="B7:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2058,94 +2058,124 @@
         <v>9</v>
       </c>
       <c r="B7" s="24">
-        <v>0</v>
+        <f>B6*0.75*0.6</f>
+        <v>18.693141014668644</v>
       </c>
       <c r="C7" s="24">
-        <v>0</v>
+        <f t="shared" ref="C7:AE7" si="3">C6*0.75*0.6</f>
+        <v>18.693141014668644</v>
       </c>
       <c r="D7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18.693141014668644</v>
       </c>
       <c r="E7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18.693141014668644</v>
       </c>
       <c r="F7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18.693141014668644</v>
       </c>
       <c r="G7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20.295410244497386</v>
       </c>
       <c r="H7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>21.897679474326125</v>
       </c>
       <c r="I7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23.499948704154868</v>
       </c>
       <c r="J7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25.10221793398361</v>
       </c>
       <c r="K7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26.704487163812352</v>
       </c>
       <c r="L7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>27.772666650364844</v>
       </c>
       <c r="M7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28.840846136917335</v>
       </c>
       <c r="N7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>29.90902562346983</v>
       </c>
       <c r="O7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30.977205110022325</v>
       </c>
       <c r="P7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>32.045384596574813</v>
       </c>
       <c r="Q7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>33.113564083127315</v>
       </c>
       <c r="R7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>34.181743569679803</v>
       </c>
       <c r="S7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>35.249923056232298</v>
       </c>
       <c r="T7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>36.318102542784793</v>
       </c>
       <c r="U7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37.386282029337288</v>
       </c>
       <c r="V7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>38.454461515889783</v>
       </c>
       <c r="W7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>39.522641002442271</v>
       </c>
       <c r="X7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40.590820488994773</v>
       </c>
       <c r="Y7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>41.65899997554726</v>
       </c>
       <c r="Z7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>42.727179462099762</v>
       </c>
       <c r="AA7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>43.79535894865225</v>
       </c>
       <c r="AB7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>44.863538435204752</v>
       </c>
       <c r="AC7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>45.93171792175724</v>
       </c>
       <c r="AD7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>46.999897408309735</v>
       </c>
       <c r="AE7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>48.06807689486223</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70482E-8A53-4DE8-AD6D-A1C0AA40FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4948291-3129-4D25-A452-09947A65D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62220" yWindow="7155" windowWidth="23790" windowHeight="9675" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="10200" yWindow="3405" windowWidth="18555" windowHeight="9120" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -106,12 +106,6 @@
     <t>CO2 price [€/t]</t>
   </si>
   <si>
-    <t>inflation correction</t>
-  </si>
-  <si>
-    <t>exchange rate 2012</t>
-  </si>
-  <si>
     <t>inflation rate EU27_2020</t>
   </si>
   <si>
@@ -146,6 +140,18 @@
   </si>
   <si>
     <t>90 in 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflation correction    1 USD 2019 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange rate     1 EUR 2019 = </t>
+  </si>
+  <si>
+    <t>USD 2012</t>
+  </si>
+  <si>
+    <t>USD 2019</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -295,11 +301,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,14 +687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -693,42 +714,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -738,25 +759,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <f>1/I26</f>
-        <v>0.9237749814519286</v>
+      <c r="B18" s="26">
+        <f>1/1.1135</f>
+        <v>0.89806915132465204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2011</v>
@@ -769,12 +793,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="22">
-        <f>J19</f>
-        <v>1.2847999999999999</v>
+        <f>J26</f>
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2012</v>
@@ -891,7 +918,7 @@
         <v>1.0825147033407052</v>
       </c>
       <c r="J26" s="22">
-        <v>1.1194999999999999</v>
+        <v>1.1198999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -938,7 +965,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
@@ -1385,7 +1412,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AE7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,123 +1521,123 @@
       </c>
       <c r="B2" s="24">
         <f t="shared" ref="B2" si="0">B3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C2" s="24">
         <f>C3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D2" s="24">
         <f t="shared" ref="D2:AE2" si="1">D3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E2" s="24">
         <f t="shared" si="1"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="1"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="1"/>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="1"/>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="1"/>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="1"/>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K2" s="24">
         <f t="shared" si="1"/>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L2" s="24">
         <f t="shared" si="1"/>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M2" s="24">
         <f t="shared" si="1"/>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N2" s="24">
         <f t="shared" si="1"/>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O2" s="24">
         <f t="shared" si="1"/>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P2" s="24">
         <f t="shared" si="1"/>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q2" s="24">
         <f t="shared" si="1"/>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R2" s="24">
         <f t="shared" si="1"/>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S2" s="24">
         <f t="shared" si="1"/>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T2" s="24">
         <f t="shared" si="1"/>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U2" s="24">
         <f t="shared" si="1"/>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V2" s="24">
         <f t="shared" si="1"/>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W2" s="24">
         <f t="shared" si="1"/>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X2" s="24">
         <f t="shared" si="1"/>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y2" s="24">
         <f t="shared" si="1"/>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z2" s="24">
         <f t="shared" si="1"/>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA2" s="24">
         <f t="shared" si="1"/>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB2" s="24">
         <f t="shared" si="1"/>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC2" s="24">
         <f t="shared" si="1"/>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD2" s="24">
         <f t="shared" si="1"/>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE2" s="24">
         <f t="shared" si="1"/>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -1619,123 +1646,123 @@
       </c>
       <c r="B3" s="24">
         <f>calc!C11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C3" s="24">
         <f>calc!D11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D3" s="24">
         <f>calc!E11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E3" s="24">
         <f>calc!F11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F3" s="24">
         <f>calc!G11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G3" s="24">
         <f>calc!H11*About!$B$18*About!$B$19</f>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H3" s="24">
         <f>calc!I11*About!$B$18*About!$B$19</f>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I3" s="24">
         <f>calc!J11*About!$B$18*About!$B$19</f>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J3" s="24">
         <f>calc!K11*About!$B$18*About!$B$19</f>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K3" s="24">
         <f>calc!L11*About!$B$18*About!$B$19</f>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L3" s="24">
         <f>calc!M11*About!$B$18*About!$B$19</f>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M3" s="24">
         <f>calc!N11*About!$B$18*About!$B$19</f>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N3" s="24">
         <f>calc!O11*About!$B$18*About!$B$19</f>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O3" s="24">
         <f>calc!P11*About!$B$18*About!$B$19</f>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P3" s="24">
         <f>calc!Q11*About!$B$18*About!$B$19</f>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q3" s="24">
         <f>calc!R11*About!$B$18*About!$B$19</f>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R3" s="24">
         <f>calc!S11*About!$B$18*About!$B$19</f>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S3" s="24">
         <f>calc!T11*About!$B$18*About!$B$19</f>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T3" s="24">
         <f>calc!U11*About!$B$18*About!$B$19</f>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U3" s="24">
         <f>calc!V11*About!$B$18*About!$B$19</f>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V3" s="24">
         <f>calc!W11*About!$B$18*About!$B$19</f>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W3" s="24">
         <f>calc!X11*About!$B$18*About!$B$19</f>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X3" s="24">
         <f>calc!Y11*About!$B$18*About!$B$19</f>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y3" s="24">
         <f>calc!Z11*About!$B$18*About!$B$19</f>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z3" s="24">
         <f>calc!AA11*About!$B$18*About!$B$19</f>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA3" s="24">
         <f>calc!AB11*About!$B$18*About!$B$19</f>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB3" s="24">
         <f>calc!AC11*About!$B$18*About!$B$19</f>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC3" s="24">
         <f>calc!AD11*About!$B$18*About!$B$19</f>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD3" s="24">
         <f>calc!AE11*About!$B$18*About!$B$19</f>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE3" s="24">
         <f>calc!AF11*About!$B$18*About!$B$19</f>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -1934,123 +1961,123 @@
       </c>
       <c r="B6" s="24">
         <f>B3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C6" s="24">
         <f t="shared" ref="C6:AE6" si="2">C3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="2"/>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H6" s="24">
         <f t="shared" si="2"/>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I6" s="24">
         <f t="shared" si="2"/>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="2"/>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K6" s="24">
         <f t="shared" si="2"/>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="2"/>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="2"/>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="2"/>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="2"/>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q6" s="24">
         <f t="shared" si="2"/>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R6" s="24">
         <f t="shared" si="2"/>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S6" s="24">
         <f t="shared" si="2"/>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T6" s="24">
         <f t="shared" si="2"/>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U6" s="24">
         <f t="shared" si="2"/>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V6" s="24">
         <f t="shared" si="2"/>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W6" s="24">
         <f t="shared" si="2"/>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X6" s="24">
         <f t="shared" si="2"/>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y6" s="24">
         <f t="shared" si="2"/>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z6" s="24">
         <f t="shared" si="2"/>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA6" s="24">
         <f t="shared" si="2"/>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB6" s="24">
         <f t="shared" si="2"/>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC6" s="24">
         <f t="shared" si="2"/>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD6" s="24">
         <f t="shared" si="2"/>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE6" s="24">
         <f t="shared" si="2"/>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -2059,123 +2086,123 @@
       </c>
       <c r="B7" s="24">
         <f>B6*0.75*0.6</f>
-        <v>18.693141014668644</v>
+        <v>15.840525370453523</v>
       </c>
       <c r="C7" s="24">
         <f t="shared" ref="C7:AE7" si="3">C6*0.75*0.6</f>
-        <v>18.693141014668644</v>
+        <v>15.840525370453523</v>
       </c>
       <c r="D7" s="24">
         <f t="shared" si="3"/>
-        <v>18.693141014668644</v>
+        <v>15.840525370453523</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" si="3"/>
-        <v>18.693141014668644</v>
+        <v>15.840525370453523</v>
       </c>
       <c r="F7" s="24">
         <f t="shared" si="3"/>
-        <v>18.693141014668644</v>
+        <v>15.840525370453523</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="3"/>
-        <v>20.295410244497386</v>
+        <v>17.198284687920971</v>
       </c>
       <c r="H7" s="24">
         <f t="shared" si="3"/>
-        <v>21.897679474326125</v>
+        <v>18.556044005388411</v>
       </c>
       <c r="I7" s="24">
         <f t="shared" si="3"/>
-        <v>23.499948704154868</v>
+        <v>19.913803322855859</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" si="3"/>
-        <v>25.10221793398361</v>
+        <v>21.271562640323303</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="3"/>
-        <v>26.704487163812352</v>
+        <v>22.629321957790751</v>
       </c>
       <c r="L7" s="24">
         <f t="shared" si="3"/>
-        <v>27.772666650364844</v>
+        <v>23.534494836102382</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" si="3"/>
-        <v>28.840846136917335</v>
+        <v>24.439667714414011</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="3"/>
-        <v>29.90902562346983</v>
+        <v>25.344840592725642</v>
       </c>
       <c r="O7" s="24">
         <f t="shared" si="3"/>
-        <v>30.977205110022325</v>
+        <v>26.250013471037267</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="3"/>
-        <v>32.045384596574813</v>
+        <v>27.155186349348895</v>
       </c>
       <c r="Q7" s="24">
         <f t="shared" si="3"/>
-        <v>33.113564083127315</v>
+        <v>28.060359227660527</v>
       </c>
       <c r="R7" s="24">
         <f t="shared" si="3"/>
-        <v>34.181743569679803</v>
+        <v>28.965532105972155</v>
       </c>
       <c r="S7" s="24">
         <f t="shared" si="3"/>
-        <v>35.249923056232298</v>
+        <v>29.870704984283787</v>
       </c>
       <c r="T7" s="24">
         <f t="shared" si="3"/>
-        <v>36.318102542784793</v>
+        <v>30.775877862595415</v>
       </c>
       <c r="U7" s="24">
         <f t="shared" si="3"/>
-        <v>37.386282029337288</v>
+        <v>31.681050740907047</v>
       </c>
       <c r="V7" s="24">
         <f t="shared" si="3"/>
-        <v>38.454461515889783</v>
+        <v>32.586223619218678</v>
       </c>
       <c r="W7" s="24">
         <f t="shared" si="3"/>
-        <v>39.522641002442271</v>
+        <v>33.49139649753031</v>
       </c>
       <c r="X7" s="24">
         <f t="shared" si="3"/>
-        <v>40.590820488994773</v>
+        <v>34.396569375841942</v>
       </c>
       <c r="Y7" s="24">
         <f t="shared" si="3"/>
-        <v>41.65899997554726</v>
+        <v>35.301742254153567</v>
       </c>
       <c r="Z7" s="24">
         <f t="shared" si="3"/>
-        <v>42.727179462099762</v>
+        <v>36.206915132465198</v>
       </c>
       <c r="AA7" s="24">
         <f t="shared" si="3"/>
-        <v>43.79535894865225</v>
+        <v>37.112088010776823</v>
       </c>
       <c r="AB7" s="24">
         <f t="shared" si="3"/>
-        <v>44.863538435204752</v>
+        <v>38.017260889088462</v>
       </c>
       <c r="AC7" s="24">
         <f t="shared" si="3"/>
-        <v>45.93171792175724</v>
+        <v>38.922433767400086</v>
       </c>
       <c r="AD7" s="24">
         <f t="shared" si="3"/>
-        <v>46.999897408309735</v>
+        <v>39.827606645711718</v>
       </c>
       <c r="AE7" s="24">
         <f t="shared" si="3"/>
-        <v>48.06807689486223</v>
+        <v>40.732779524023343</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -2375,17 +2402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -2614,6 +2630,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2624,17 +2651,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2653,6 +2669,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
   <ds:schemaRefs>

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6500BCC-809B-4E81-8AF7-2880CEA1FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4948291-3129-4D25-A452-09947A65D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1440" windowWidth="27045" windowHeight="14490" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="10200" yWindow="3405" windowWidth="18555" windowHeight="9120" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="calc" sheetId="3" r:id="rId2"/>
     <sheet name="BCTR" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -106,12 +106,6 @@
     <t>CO2 price [€/t]</t>
   </si>
   <si>
-    <t>inflation correction</t>
-  </si>
-  <si>
-    <t>exchange rate 2012</t>
-  </si>
-  <si>
     <t>inflation rate EU27_2020</t>
   </si>
   <si>
@@ -146,6 +140,18 @@
   </si>
   <si>
     <t>90 in 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflation correction    1 USD 2019 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange rate     1 EUR 2019 = </t>
+  </si>
+  <si>
+    <t>USD 2012</t>
+  </si>
+  <si>
+    <t>USD 2019</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -295,11 +301,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +367,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,14 +687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -693,42 +714,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -738,25 +759,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <f>1/I26</f>
-        <v>0.9237749814519286</v>
+      <c r="B18" s="26">
+        <f>1/1.1135</f>
+        <v>0.89806915132465204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2011</v>
@@ -769,12 +793,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="22">
-        <f>J19</f>
-        <v>1.2847999999999999</v>
+        <f>J26</f>
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2012</v>
@@ -891,7 +918,7 @@
         <v>1.0825147033407052</v>
       </c>
       <c r="J26" s="22">
-        <v>1.1194999999999999</v>
+        <v>1.1198999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -938,7 +965,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
@@ -1385,7 +1412,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,123 +1521,123 @@
       </c>
       <c r="B2" s="24">
         <f t="shared" ref="B2" si="0">B3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C2" s="24">
         <f>C3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D2" s="24">
         <f t="shared" ref="D2:AE2" si="1">D3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E2" s="24">
         <f t="shared" si="1"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="1"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G2" s="24">
         <f t="shared" si="1"/>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="1"/>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I2" s="24">
         <f t="shared" si="1"/>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="1"/>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K2" s="24">
         <f t="shared" si="1"/>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L2" s="24">
         <f t="shared" si="1"/>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M2" s="24">
         <f t="shared" si="1"/>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N2" s="24">
         <f t="shared" si="1"/>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O2" s="24">
         <f t="shared" si="1"/>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P2" s="24">
         <f t="shared" si="1"/>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q2" s="24">
         <f t="shared" si="1"/>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R2" s="24">
         <f t="shared" si="1"/>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S2" s="24">
         <f t="shared" si="1"/>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T2" s="24">
         <f t="shared" si="1"/>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U2" s="24">
         <f t="shared" si="1"/>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V2" s="24">
         <f t="shared" si="1"/>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W2" s="24">
         <f t="shared" si="1"/>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X2" s="24">
         <f t="shared" si="1"/>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y2" s="24">
         <f t="shared" si="1"/>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z2" s="24">
         <f t="shared" si="1"/>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA2" s="24">
         <f t="shared" si="1"/>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB2" s="24">
         <f t="shared" si="1"/>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC2" s="24">
         <f t="shared" si="1"/>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD2" s="24">
         <f t="shared" si="1"/>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE2" s="24">
         <f t="shared" si="1"/>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -1619,123 +1646,123 @@
       </c>
       <c r="B3" s="24">
         <f>calc!C11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C3" s="24">
         <f>calc!D11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D3" s="24">
         <f>calc!E11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E3" s="24">
         <f>calc!F11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F3" s="24">
         <f>calc!G11*About!$B$18*About!$B$19</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G3" s="24">
         <f>calc!H11*About!$B$18*About!$B$19</f>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H3" s="24">
         <f>calc!I11*About!$B$18*About!$B$19</f>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I3" s="24">
         <f>calc!J11*About!$B$18*About!$B$19</f>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J3" s="24">
         <f>calc!K11*About!$B$18*About!$B$19</f>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K3" s="24">
         <f>calc!L11*About!$B$18*About!$B$19</f>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L3" s="24">
         <f>calc!M11*About!$B$18*About!$B$19</f>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M3" s="24">
         <f>calc!N11*About!$B$18*About!$B$19</f>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N3" s="24">
         <f>calc!O11*About!$B$18*About!$B$19</f>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O3" s="24">
         <f>calc!P11*About!$B$18*About!$B$19</f>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P3" s="24">
         <f>calc!Q11*About!$B$18*About!$B$19</f>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q3" s="24">
         <f>calc!R11*About!$B$18*About!$B$19</f>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R3" s="24">
         <f>calc!S11*About!$B$18*About!$B$19</f>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S3" s="24">
         <f>calc!T11*About!$B$18*About!$B$19</f>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T3" s="24">
         <f>calc!U11*About!$B$18*About!$B$19</f>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U3" s="24">
         <f>calc!V11*About!$B$18*About!$B$19</f>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V3" s="24">
         <f>calc!W11*About!$B$18*About!$B$19</f>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W3" s="24">
         <f>calc!X11*About!$B$18*About!$B$19</f>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X3" s="24">
         <f>calc!Y11*About!$B$18*About!$B$19</f>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y3" s="24">
         <f>calc!Z11*About!$B$18*About!$B$19</f>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z3" s="24">
         <f>calc!AA11*About!$B$18*About!$B$19</f>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA3" s="24">
         <f>calc!AB11*About!$B$18*About!$B$19</f>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB3" s="24">
         <f>calc!AC11*About!$B$18*About!$B$19</f>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC3" s="24">
         <f>calc!AD11*About!$B$18*About!$B$19</f>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD3" s="24">
         <f>calc!AE11*About!$B$18*About!$B$19</f>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE3" s="24">
         <f>calc!AF11*About!$B$18*About!$B$19</f>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -1934,123 +1961,123 @@
       </c>
       <c r="B6" s="24">
         <f>B3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="C6" s="24">
         <f t="shared" ref="C6:AE6" si="2">C3</f>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="D6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="2"/>
-        <v>41.540313365930324</v>
+        <v>35.201167489896719</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="2"/>
-        <v>45.100911654438633</v>
+        <v>38.218410417602158</v>
       </c>
       <c r="H6" s="24">
         <f t="shared" si="2"/>
-        <v>48.66150994294695</v>
+        <v>41.235653345307583</v>
       </c>
       <c r="I6" s="24">
         <f t="shared" si="2"/>
-        <v>52.222108231455259</v>
+        <v>44.252896273013022</v>
       </c>
       <c r="J6" s="24">
         <f t="shared" si="2"/>
-        <v>55.782706519963583</v>
+        <v>47.270139200718454</v>
       </c>
       <c r="K6" s="24">
         <f t="shared" si="2"/>
-        <v>59.343304808471892</v>
+        <v>50.287382128423886</v>
       </c>
       <c r="L6" s="24">
         <f t="shared" si="2"/>
-        <v>61.717037000810762</v>
+        <v>52.298877413560845</v>
       </c>
       <c r="M6" s="24">
         <f t="shared" si="2"/>
-        <v>64.09076919314964</v>
+        <v>54.310372698697797</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="2"/>
-        <v>66.464501385488518</v>
+        <v>56.321867983834757</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="2"/>
-        <v>68.838233577827395</v>
+        <v>58.333363268971709</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>71.211965770166259</v>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q6" s="24">
         <f t="shared" si="2"/>
-        <v>73.585697962505151</v>
+        <v>62.356353839245621</v>
       </c>
       <c r="R6" s="24">
         <f t="shared" si="2"/>
-        <v>75.959430154844014</v>
+        <v>64.367849124382573</v>
       </c>
       <c r="S6" s="24">
         <f t="shared" si="2"/>
-        <v>78.333162347182892</v>
+        <v>66.379344409519533</v>
       </c>
       <c r="T6" s="24">
         <f t="shared" si="2"/>
-        <v>80.70689453952177</v>
+        <v>68.390839694656478</v>
       </c>
       <c r="U6" s="24">
         <f t="shared" si="2"/>
-        <v>83.080626731860647</v>
+        <v>70.402334979793437</v>
       </c>
       <c r="V6" s="24">
         <f t="shared" si="2"/>
-        <v>85.454358924199525</v>
+        <v>72.413830264930397</v>
       </c>
       <c r="W6" s="24">
         <f t="shared" si="2"/>
-        <v>87.828091116538388</v>
+        <v>74.425325550067356</v>
       </c>
       <c r="X6" s="24">
         <f t="shared" si="2"/>
-        <v>90.201823308877266</v>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y6" s="24">
         <f t="shared" si="2"/>
-        <v>92.575555501216144</v>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z6" s="24">
         <f t="shared" si="2"/>
-        <v>94.949287693555036</v>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA6" s="24">
         <f t="shared" si="2"/>
-        <v>97.323019885893899</v>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB6" s="24">
         <f t="shared" si="2"/>
-        <v>99.696752078232777</v>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC6" s="24">
         <f t="shared" si="2"/>
-        <v>102.07048427057165</v>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD6" s="24">
         <f t="shared" si="2"/>
-        <v>104.44421646291052</v>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE6" s="24">
         <f t="shared" si="2"/>
-        <v>106.8179486552494</v>
+        <v>90.517287831162989</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -2058,94 +2085,124 @@
         <v>9</v>
       </c>
       <c r="B7" s="24">
-        <v>0</v>
+        <f>B6*0.75*0.6</f>
+        <v>15.840525370453523</v>
       </c>
       <c r="C7" s="24">
-        <v>0</v>
+        <f t="shared" ref="C7:AE7" si="3">C6*0.75*0.6</f>
+        <v>15.840525370453523</v>
       </c>
       <c r="D7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15.840525370453523</v>
       </c>
       <c r="E7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15.840525370453523</v>
       </c>
       <c r="F7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>15.840525370453523</v>
       </c>
       <c r="G7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17.198284687920971</v>
       </c>
       <c r="H7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18.556044005388411</v>
       </c>
       <c r="I7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>19.913803322855859</v>
       </c>
       <c r="J7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>21.271562640323303</v>
       </c>
       <c r="K7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>22.629321957790751</v>
       </c>
       <c r="L7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23.534494836102382</v>
       </c>
       <c r="M7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>24.439667714414011</v>
       </c>
       <c r="N7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25.344840592725642</v>
       </c>
       <c r="O7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26.250013471037267</v>
       </c>
       <c r="P7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>27.155186349348895</v>
       </c>
       <c r="Q7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28.060359227660527</v>
       </c>
       <c r="R7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28.965532105972155</v>
       </c>
       <c r="S7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>29.870704984283787</v>
       </c>
       <c r="T7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30.775877862595415</v>
       </c>
       <c r="U7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>31.681050740907047</v>
       </c>
       <c r="V7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>32.586223619218678</v>
       </c>
       <c r="W7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>33.49139649753031</v>
       </c>
       <c r="X7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>34.396569375841942</v>
       </c>
       <c r="Y7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>35.301742254153567</v>
       </c>
       <c r="Z7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>36.206915132465198</v>
       </c>
       <c r="AA7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37.112088010776823</v>
       </c>
       <c r="AB7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>38.017260889088462</v>
       </c>
       <c r="AC7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>38.922433767400086</v>
       </c>
       <c r="AD7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>39.827606645711718</v>
       </c>
       <c r="AE7" s="24">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40.732779524023343</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -2345,17 +2402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -2584,6 +2630,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2594,17 +2651,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2623,6 +2669,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
   <ds:schemaRefs>

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,23 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4948291-3129-4D25-A452-09947A65D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C3324-D266-4D73-9019-F7DAF02861D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3405" windowWidth="18555" windowHeight="9120" activeTab="2" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="3765" yWindow="3510" windowWidth="21600" windowHeight="11235" activeTab="3" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="calc" sheetId="3" r:id="rId2"/>
-    <sheet name="BCTR" sheetId="2" r:id="rId3"/>
+    <sheet name="Allowance Schedule" sheetId="4" r:id="rId3"/>
+    <sheet name="BCTR" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="CH4_to_CO2e">'[2]Cross-Page Data'!$C$12</definedName>
+    <definedName name="cpi_2010to2012">#REF!</definedName>
+    <definedName name="cpi_2013to2012">#REF!</definedName>
+    <definedName name="cpi_2014to2012">#REF!</definedName>
+    <definedName name="cpi_2016to2012">#REF!</definedName>
+    <definedName name="gigwatts_to_megawatts">[3]About!$A$31</definedName>
+    <definedName name="N2O_to_CO2e">'[2]Cross-Page Data'!$C$13</definedName>
+    <definedName name="unit_conv">[4]About!$A$123</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -153,6 +170,60 @@
   <si>
     <t>USD 2019</t>
   </si>
+  <si>
+    <t>In order to help prevent industries from leaving the EU, a large share of allowances are freely granted in early years.</t>
+  </si>
+  <si>
+    <t>Share of Allowances Freely Granted</t>
+  </si>
+  <si>
+    <t>High-leak-risk industries</t>
+  </si>
+  <si>
+    <t>Other industries</t>
+  </si>
+  <si>
+    <t>Share of Allowances Auctioned</t>
+  </si>
+  <si>
+    <t>As a hydrogen production is part of a sector (industrial gases manufacturing) considered at risk of carbon leakage, installations can benefit from free allocation of ETS allowances.</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/RegData/etudes/BRIE/2023/747085/EPRS_BRI(2023)747085_EN.pdf</t>
+  </si>
+  <si>
+    <t>We use the 2022 share of emissions from H2 production as a % of H2/DH production to allocate free allowances to the H2/DH sector.</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[transportation sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[electricity sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[residential buildings sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[commercial buildings sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[industry sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[district heat and hydrogen sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[LULUCF sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Total CO2e Emissions by Sector[geoengineering sector] : nosettings</t>
+  </si>
+  <si>
+    <t>Hydrogen Sector CO2e Emissions : nosettings</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +253,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,10 +397,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,9 +459,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,6 +479,1873 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Share of Allowances Auctioned</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Allowance Schedule'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High-leak-risk industries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Allowance Schedule'!$C$14:$AG$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allowance Schedule'!$C$15:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4A8-406D-96B8-A3E8B88B91C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Allowance Schedule'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other industries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Allowance Schedule'!$C$14:$AG$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allowance Schedule'!$C$16:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4A8-406D-96B8-A3E8B88B91C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1397311024"/>
+        <c:axId val="1397299984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1397311024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397299984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1397299984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.01"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397311024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2997200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19948E9D-61E9-4D23-99EB-1B0D08B9F8AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Carbon Leakage Risk"/>
+      <sheetName val="Allowance Schedule"/>
+      <sheetName val="ETS Coverage"/>
+      <sheetName val="Calcs"/>
+      <sheetName val="BFoICStCT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="C9">
+            <v>2020</v>
+          </cell>
+          <cell r="D9">
+            <v>2021</v>
+          </cell>
+          <cell r="E9">
+            <v>2022</v>
+          </cell>
+          <cell r="F9">
+            <v>2023</v>
+          </cell>
+          <cell r="G9">
+            <v>2024</v>
+          </cell>
+          <cell r="H9">
+            <v>2025</v>
+          </cell>
+          <cell r="I9">
+            <v>2026</v>
+          </cell>
+          <cell r="J9">
+            <v>2027</v>
+          </cell>
+          <cell r="K9">
+            <v>2028</v>
+          </cell>
+          <cell r="L9">
+            <v>2029</v>
+          </cell>
+          <cell r="M9">
+            <v>2030</v>
+          </cell>
+          <cell r="N9">
+            <v>2031</v>
+          </cell>
+          <cell r="O9">
+            <v>2032</v>
+          </cell>
+          <cell r="P9">
+            <v>2033</v>
+          </cell>
+          <cell r="Q9">
+            <v>2034</v>
+          </cell>
+          <cell r="R9">
+            <v>2035</v>
+          </cell>
+          <cell r="S9">
+            <v>2036</v>
+          </cell>
+          <cell r="T9">
+            <v>2037</v>
+          </cell>
+          <cell r="U9">
+            <v>2038</v>
+          </cell>
+          <cell r="V9">
+            <v>2039</v>
+          </cell>
+          <cell r="W9">
+            <v>2040</v>
+          </cell>
+          <cell r="X9">
+            <v>2041</v>
+          </cell>
+          <cell r="Y9">
+            <v>2042</v>
+          </cell>
+          <cell r="Z9">
+            <v>2043</v>
+          </cell>
+          <cell r="AA9">
+            <v>2044</v>
+          </cell>
+          <cell r="AB9">
+            <v>2045</v>
+          </cell>
+          <cell r="AC9">
+            <v>2046</v>
+          </cell>
+          <cell r="AD9">
+            <v>2047</v>
+          </cell>
+          <cell r="AE9">
+            <v>2048</v>
+          </cell>
+          <cell r="AF9">
+            <v>2049</v>
+          </cell>
+          <cell r="AG9">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>High-leak-risk industries</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>2.5000000000000022E-2</v>
+          </cell>
+          <cell r="J10">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="K10">
+            <v>9.9999999999999978E-2</v>
+          </cell>
+          <cell r="L10">
+            <v>0.22499999999999998</v>
+          </cell>
+          <cell r="M10">
+            <v>0.48499999999999999</v>
+          </cell>
+          <cell r="N10">
+            <v>0.61</v>
+          </cell>
+          <cell r="O10">
+            <v>0.73499999999999999</v>
+          </cell>
+          <cell r="P10">
+            <v>0.86</v>
+          </cell>
+          <cell r="Q10">
+            <v>1</v>
+          </cell>
+          <cell r="R10">
+            <v>1</v>
+          </cell>
+          <cell r="S10">
+            <v>1</v>
+          </cell>
+          <cell r="T10">
+            <v>1</v>
+          </cell>
+          <cell r="U10">
+            <v>1</v>
+          </cell>
+          <cell r="V10">
+            <v>1</v>
+          </cell>
+          <cell r="W10">
+            <v>1</v>
+          </cell>
+          <cell r="X10">
+            <v>1</v>
+          </cell>
+          <cell r="Y10">
+            <v>1</v>
+          </cell>
+          <cell r="Z10">
+            <v>1</v>
+          </cell>
+          <cell r="AA10">
+            <v>1</v>
+          </cell>
+          <cell r="AB10">
+            <v>1</v>
+          </cell>
+          <cell r="AC10">
+            <v>1</v>
+          </cell>
+          <cell r="AD10">
+            <v>1</v>
+          </cell>
+          <cell r="AE10">
+            <v>1</v>
+          </cell>
+          <cell r="AF10">
+            <v>1</v>
+          </cell>
+          <cell r="AG10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Other industries</v>
+          </cell>
+          <cell r="C11">
+            <v>0.7</v>
+          </cell>
+          <cell r="D11">
+            <v>0.7</v>
+          </cell>
+          <cell r="E11">
+            <v>0.7</v>
+          </cell>
+          <cell r="F11">
+            <v>0.7</v>
+          </cell>
+          <cell r="G11">
+            <v>0.7</v>
+          </cell>
+          <cell r="H11">
+            <v>0.7</v>
+          </cell>
+          <cell r="I11">
+            <v>0.7</v>
+          </cell>
+          <cell r="J11">
+            <v>0.77500000000000002</v>
+          </cell>
+          <cell r="K11">
+            <v>0.85</v>
+          </cell>
+          <cell r="L11">
+            <v>0.92500000000000004</v>
+          </cell>
+          <cell r="M11">
+            <v>1</v>
+          </cell>
+          <cell r="N11">
+            <v>1</v>
+          </cell>
+          <cell r="O11">
+            <v>1</v>
+          </cell>
+          <cell r="P11">
+            <v>1</v>
+          </cell>
+          <cell r="Q11">
+            <v>1</v>
+          </cell>
+          <cell r="R11">
+            <v>1</v>
+          </cell>
+          <cell r="S11">
+            <v>1</v>
+          </cell>
+          <cell r="T11">
+            <v>1</v>
+          </cell>
+          <cell r="U11">
+            <v>1</v>
+          </cell>
+          <cell r="V11">
+            <v>1</v>
+          </cell>
+          <cell r="W11">
+            <v>1</v>
+          </cell>
+          <cell r="X11">
+            <v>1</v>
+          </cell>
+          <cell r="Y11">
+            <v>1</v>
+          </cell>
+          <cell r="Z11">
+            <v>1</v>
+          </cell>
+          <cell r="AA11">
+            <v>1</v>
+          </cell>
+          <cell r="AB11">
+            <v>1</v>
+          </cell>
+          <cell r="AC11">
+            <v>1</v>
+          </cell>
+          <cell r="AD11">
+            <v>1</v>
+          </cell>
+          <cell r="AE11">
+            <v>1</v>
+          </cell>
+          <cell r="AF11">
+            <v>1</v>
+          </cell>
+          <cell r="AG11">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Cross-Page Data"/>
+      <sheetName val="Non-Energy FF CO2 Emissions"/>
+      <sheetName val="Cement CO2 Emissions"/>
+      <sheetName val="Iron and Steel"/>
+      <sheetName val="Coal Mining"/>
+      <sheetName val="Natural Gas Systems"/>
+      <sheetName val="Petroleum Systems"/>
+      <sheetName val="Chem - HCFC 22 Production"/>
+      <sheetName val="Chem - ODS"/>
+      <sheetName val="Other - Aluminum"/>
+      <sheetName val="Other - Magnesium"/>
+      <sheetName val="Other - Semiconductor Mfg"/>
+      <sheetName val="Other - Elec Trans and Dist"/>
+      <sheetName val="Agriculture - EF &amp; Manure Mgmt"/>
+      <sheetName val="Agriculture - Rice Cultivation"/>
+      <sheetName val="Agriculture - Soil Mgmt"/>
+      <sheetName val="Waste - Landfills"/>
+      <sheetName val="Waste - Water Treatment"/>
+      <sheetName val="Other Industrial Processes"/>
+      <sheetName val="Combined Data"/>
+      <sheetName val="BPEiC-CO2"/>
+      <sheetName val="BPEiC-CH4"/>
+      <sheetName val="BPEiC-N2O"/>
+      <sheetName val="BPEiC-F-gases"/>
+      <sheetName val="EPA (2017) Table A3.6-1"/>
+      <sheetName val="EPA (2017) Table A3.6-7"/>
+      <sheetName val="EPA (2017) Table A3.6-10"/>
+      <sheetName val="AEO 2017_Table 6"/>
+      <sheetName val="AEO 2017_Table 11"/>
+      <sheetName val="AEO 2017_Table 13"/>
+      <sheetName val="AEO 2017_Table 15"/>
+      <sheetName val="AEO 2017_Table 19"/>
+      <sheetName val="AEO 2017_Table 20"/>
+      <sheetName val="AEO 2017_Table 24"/>
+      <sheetName val="AEO 2017_Table 62"/>
+      <sheetName val="AEO 2016_Table 6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="12">
+          <cell r="C12">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>265</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Transport Refrigeration</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="2035 Report Deployment"/>
+      <sheetName val="2035 Report Data"/>
+      <sheetName val="EPS Output"/>
+      <sheetName val="AEO Table 9"/>
+      <sheetName val="AEO Table 9 (2019)"/>
+      <sheetName val="AEO Table 16"/>
+      <sheetName val="BGBSC"/>
+      <sheetName val="PAGBSC"/>
+      <sheetName val="SYGBSC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="A31">
+            <v>1000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Country Selector"/>
+      <sheetName val="Multipliers and Adjustments"/>
+      <sheetName val="EPA Data"/>
+      <sheetName val="Tech to Policy Mapping"/>
+      <sheetName val="SNAP Adjustment"/>
+      <sheetName val="Cement Data"/>
+      <sheetName val="Data Check"/>
+      <sheetName val="PERAC-cement"/>
+      <sheetName val="PERAC-ngps-mthncptr"/>
+      <sheetName val="PERAC-ngps-mthndstr"/>
+      <sheetName val="PERAC-fgassubstitution"/>
+      <sheetName val="PERAC-fgasdestruction"/>
+      <sheetName val="PERAC-fgasrecovery"/>
+      <sheetName val="PERAC-inspctmaintretrofit"/>
+      <sheetName val="PERAC-coalmining-mthncptr"/>
+      <sheetName val="PERAC-coalmining-mthndstr"/>
+      <sheetName val="PERAC-waste-mthncptr"/>
+      <sheetName val="PERAC-waste-mthndstr"/>
+      <sheetName val="PERAC-cropsrice"/>
+      <sheetName val="PERAC-livestock"/>
+      <sheetName val="PERAC-MCD"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="123">
+          <cell r="A123">
+            <v>1000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,20 +2651,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -712,52 +2672,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -771,7 +2731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
@@ -792,7 +2752,7 @@
         <v>1.3919999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
@@ -816,7 +2776,7 @@
         <v>1.2847999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>2013</v>
       </c>
@@ -831,7 +2791,7 @@
         <v>1.3281000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>2014</v>
       </c>
@@ -846,7 +2806,7 @@
         <v>1.3285</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>2015</v>
       </c>
@@ -861,7 +2821,7 @@
         <v>1.1094999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2016</v>
       </c>
@@ -876,7 +2836,7 @@
         <v>1.1069</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>2017</v>
       </c>
@@ -891,7 +2851,7 @@
         <v>1.1296999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>2018</v>
       </c>
@@ -906,7 +2866,7 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2019</v>
       </c>
@@ -921,7 +2881,7 @@
         <v>1.1198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2020</v>
       </c>
@@ -932,7 +2892,7 @@
         <v>1.1422000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2021</v>
       </c>
@@ -943,7 +2903,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>2022</v>
       </c>
@@ -965,12 +2925,12 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +2961,7 @@
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +2985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +3009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +3061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +3087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +3115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +3239,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>D11</f>
         <v>35</v>
@@ -1405,6 +3365,1625 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293040C4-7933-4B72-8968-7BFA5C4D8BE7}">
+  <dimension ref="B1:AG45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+      <c r="G9">
+        <v>2024</v>
+      </c>
+      <c r="H9">
+        <v>2025</v>
+      </c>
+      <c r="I9">
+        <v>2026</v>
+      </c>
+      <c r="J9">
+        <v>2027</v>
+      </c>
+      <c r="K9">
+        <v>2028</v>
+      </c>
+      <c r="L9">
+        <v>2029</v>
+      </c>
+      <c r="M9">
+        <v>2030</v>
+      </c>
+      <c r="N9">
+        <v>2031</v>
+      </c>
+      <c r="O9">
+        <v>2032</v>
+      </c>
+      <c r="P9">
+        <v>2033</v>
+      </c>
+      <c r="Q9">
+        <v>2034</v>
+      </c>
+      <c r="R9">
+        <v>2035</v>
+      </c>
+      <c r="S9">
+        <v>2036</v>
+      </c>
+      <c r="T9">
+        <v>2037</v>
+      </c>
+      <c r="U9">
+        <v>2038</v>
+      </c>
+      <c r="V9">
+        <v>2039</v>
+      </c>
+      <c r="W9">
+        <v>2040</v>
+      </c>
+      <c r="X9">
+        <v>2041</v>
+      </c>
+      <c r="Y9">
+        <v>2042</v>
+      </c>
+      <c r="Z9">
+        <v>2043</v>
+      </c>
+      <c r="AA9">
+        <v>2044</v>
+      </c>
+      <c r="AB9">
+        <v>2045</v>
+      </c>
+      <c r="AC9">
+        <v>2046</v>
+      </c>
+      <c r="AD9">
+        <v>2047</v>
+      </c>
+      <c r="AE9">
+        <v>2048</v>
+      </c>
+      <c r="AF9">
+        <v>2049</v>
+      </c>
+      <c r="AG9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0.39</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <v>0</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0</v>
+      </c>
+      <c r="U10" s="29">
+        <v>0</v>
+      </c>
+      <c r="V10" s="29">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+      <c r="X10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0</v>
+      </c>
+      <c r="S11" s="29">
+        <v>0</v>
+      </c>
+      <c r="T11" s="29">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+      <c r="X11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>2024</v>
+      </c>
+      <c r="H14">
+        <v>2025</v>
+      </c>
+      <c r="I14">
+        <v>2026</v>
+      </c>
+      <c r="J14">
+        <v>2027</v>
+      </c>
+      <c r="K14">
+        <v>2028</v>
+      </c>
+      <c r="L14">
+        <v>2029</v>
+      </c>
+      <c r="M14">
+        <v>2030</v>
+      </c>
+      <c r="N14">
+        <v>2031</v>
+      </c>
+      <c r="O14">
+        <v>2032</v>
+      </c>
+      <c r="P14">
+        <v>2033</v>
+      </c>
+      <c r="Q14">
+        <v>2034</v>
+      </c>
+      <c r="R14">
+        <v>2035</v>
+      </c>
+      <c r="S14">
+        <v>2036</v>
+      </c>
+      <c r="T14">
+        <v>2037</v>
+      </c>
+      <c r="U14">
+        <v>2038</v>
+      </c>
+      <c r="V14">
+        <v>2039</v>
+      </c>
+      <c r="W14">
+        <v>2040</v>
+      </c>
+      <c r="X14">
+        <v>2041</v>
+      </c>
+      <c r="Y14">
+        <v>2042</v>
+      </c>
+      <c r="Z14">
+        <v>2043</v>
+      </c>
+      <c r="AA14">
+        <v>2044</v>
+      </c>
+      <c r="AB14">
+        <v>2045</v>
+      </c>
+      <c r="AC14">
+        <v>2046</v>
+      </c>
+      <c r="AD14">
+        <v>2047</v>
+      </c>
+      <c r="AE14">
+        <v>2048</v>
+      </c>
+      <c r="AF14">
+        <v>2049</v>
+      </c>
+      <c r="AG14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="29">
+        <f>1-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" ref="D15:AG15" si="0">1-D10</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="O15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="Q15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" ref="C16:AG16" si="1">1-C11</f>
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="K16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
+      </c>
+      <c r="F36">
+        <v>2025</v>
+      </c>
+      <c r="G36">
+        <v>2026</v>
+      </c>
+      <c r="H36">
+        <v>2027</v>
+      </c>
+      <c r="I36">
+        <v>2028</v>
+      </c>
+      <c r="J36">
+        <v>2029</v>
+      </c>
+      <c r="K36">
+        <v>2030</v>
+      </c>
+      <c r="L36">
+        <v>2031</v>
+      </c>
+      <c r="M36">
+        <v>2032</v>
+      </c>
+      <c r="N36">
+        <v>2033</v>
+      </c>
+      <c r="O36">
+        <v>2034</v>
+      </c>
+      <c r="P36">
+        <v>2035</v>
+      </c>
+      <c r="Q36">
+        <v>2036</v>
+      </c>
+      <c r="R36">
+        <v>2037</v>
+      </c>
+      <c r="S36">
+        <v>2038</v>
+      </c>
+      <c r="T36">
+        <v>2039</v>
+      </c>
+      <c r="U36">
+        <v>2040</v>
+      </c>
+      <c r="V36">
+        <v>2041</v>
+      </c>
+      <c r="W36">
+        <v>2042</v>
+      </c>
+      <c r="X36">
+        <v>2043</v>
+      </c>
+      <c r="Y36">
+        <v>2044</v>
+      </c>
+      <c r="Z36">
+        <v>2045</v>
+      </c>
+      <c r="AA36">
+        <v>2046</v>
+      </c>
+      <c r="AB36">
+        <v>2047</v>
+      </c>
+      <c r="AC36">
+        <v>2048</v>
+      </c>
+      <c r="AD36">
+        <v>2049</v>
+      </c>
+      <c r="AE36">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="30">
+        <v>821630000000000</v>
+      </c>
+      <c r="D37" s="30">
+        <v>835002000000000</v>
+      </c>
+      <c r="E37" s="30">
+        <v>842990000000000</v>
+      </c>
+      <c r="F37" s="30">
+        <v>847879000000000</v>
+      </c>
+      <c r="G37" s="30">
+        <v>837634000000000</v>
+      </c>
+      <c r="H37" s="30">
+        <v>823562000000000</v>
+      </c>
+      <c r="I37" s="30">
+        <v>811581000000000</v>
+      </c>
+      <c r="J37" s="30">
+        <v>795773000000000</v>
+      </c>
+      <c r="K37" s="30">
+        <v>776260000000000</v>
+      </c>
+      <c r="L37" s="30">
+        <v>755704000000000</v>
+      </c>
+      <c r="M37" s="30">
+        <v>734255000000000</v>
+      </c>
+      <c r="N37" s="30">
+        <v>712009000000000</v>
+      </c>
+      <c r="O37" s="30">
+        <v>686996000000000</v>
+      </c>
+      <c r="P37" s="30">
+        <v>664207000000000</v>
+      </c>
+      <c r="Q37" s="30">
+        <v>642324000000000</v>
+      </c>
+      <c r="R37" s="30">
+        <v>620364000000000</v>
+      </c>
+      <c r="S37" s="30">
+        <v>596761000000000</v>
+      </c>
+      <c r="T37" s="30">
+        <v>578179000000000</v>
+      </c>
+      <c r="U37" s="30">
+        <v>560791000000000</v>
+      </c>
+      <c r="V37" s="30">
+        <v>540441000000000</v>
+      </c>
+      <c r="W37" s="30">
+        <v>524324000000000</v>
+      </c>
+      <c r="X37" s="30">
+        <v>509657000000000</v>
+      </c>
+      <c r="Y37" s="30">
+        <v>494492000000000</v>
+      </c>
+      <c r="Z37" s="30">
+        <v>481727000000000</v>
+      </c>
+      <c r="AA37" s="30">
+        <v>468499000000000</v>
+      </c>
+      <c r="AB37" s="30">
+        <v>457626000000000</v>
+      </c>
+      <c r="AC37" s="30">
+        <v>446360000000000</v>
+      </c>
+      <c r="AD37" s="30">
+        <v>437154000000000</v>
+      </c>
+      <c r="AE37" s="30">
+        <v>428031000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="30">
+        <v>638953000000000</v>
+      </c>
+      <c r="D38" s="30">
+        <v>608440000000000</v>
+      </c>
+      <c r="E38" s="30">
+        <v>534928000000000</v>
+      </c>
+      <c r="F38" s="30">
+        <v>517601000000000</v>
+      </c>
+      <c r="G38" s="30">
+        <v>456956000000000</v>
+      </c>
+      <c r="H38" s="30">
+        <v>385949000000000</v>
+      </c>
+      <c r="I38" s="30">
+        <v>305127000000000</v>
+      </c>
+      <c r="J38" s="30">
+        <v>215547000000000</v>
+      </c>
+      <c r="K38" s="30">
+        <v>112200000000000</v>
+      </c>
+      <c r="L38" s="30">
+        <v>79291900000000</v>
+      </c>
+      <c r="M38" s="30">
+        <v>66275700000000</v>
+      </c>
+      <c r="N38" s="30">
+        <v>52177600000000</v>
+      </c>
+      <c r="O38" s="30">
+        <v>42506000000000</v>
+      </c>
+      <c r="P38" s="30">
+        <v>34311300000000</v>
+      </c>
+      <c r="Q38" s="30">
+        <v>27234100000000</v>
+      </c>
+      <c r="R38" s="30">
+        <v>24714500000000</v>
+      </c>
+      <c r="S38" s="30">
+        <v>21579400000000</v>
+      </c>
+      <c r="T38" s="30">
+        <v>20412300000000</v>
+      </c>
+      <c r="U38" s="30">
+        <v>16762300000000</v>
+      </c>
+      <c r="V38" s="30">
+        <v>23135800000000</v>
+      </c>
+      <c r="W38" s="30">
+        <v>24620100000000</v>
+      </c>
+      <c r="X38" s="30">
+        <v>25877200000000</v>
+      </c>
+      <c r="Y38" s="30">
+        <v>26128200000000</v>
+      </c>
+      <c r="Z38" s="30">
+        <v>22537400000000</v>
+      </c>
+      <c r="AA38" s="30">
+        <v>30070400000000</v>
+      </c>
+      <c r="AB38" s="30">
+        <v>26010400000000</v>
+      </c>
+      <c r="AC38" s="30">
+        <v>26908800000000</v>
+      </c>
+      <c r="AD38" s="30">
+        <v>25621600000000</v>
+      </c>
+      <c r="AE38" s="30">
+        <v>20709600000000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="30">
+        <v>322904000000000</v>
+      </c>
+      <c r="D39" s="30">
+        <v>317119000000000</v>
+      </c>
+      <c r="E39" s="30">
+        <v>306079000000000</v>
+      </c>
+      <c r="F39" s="30">
+        <v>304412000000000</v>
+      </c>
+      <c r="G39" s="30">
+        <v>300384000000000</v>
+      </c>
+      <c r="H39" s="30">
+        <v>295654000000000</v>
+      </c>
+      <c r="I39" s="30">
+        <v>295022000000000</v>
+      </c>
+      <c r="J39" s="30">
+        <v>293093000000000</v>
+      </c>
+      <c r="K39" s="30">
+        <v>290114000000000</v>
+      </c>
+      <c r="L39" s="30">
+        <v>286926000000000</v>
+      </c>
+      <c r="M39" s="30">
+        <v>285577000000000</v>
+      </c>
+      <c r="N39" s="30">
+        <v>283934000000000</v>
+      </c>
+      <c r="O39" s="30">
+        <v>283202000000000</v>
+      </c>
+      <c r="P39" s="30">
+        <v>279505000000000</v>
+      </c>
+      <c r="Q39" s="30">
+        <v>276457000000000</v>
+      </c>
+      <c r="R39" s="30">
+        <v>273860000000000</v>
+      </c>
+      <c r="S39" s="30">
+        <v>271912000000000</v>
+      </c>
+      <c r="T39" s="30">
+        <v>269450000000000</v>
+      </c>
+      <c r="U39" s="30">
+        <v>266965000000000</v>
+      </c>
+      <c r="V39" s="30">
+        <v>264703000000000</v>
+      </c>
+      <c r="W39" s="30">
+        <v>262338000000000</v>
+      </c>
+      <c r="X39" s="30">
+        <v>259890000000000</v>
+      </c>
+      <c r="Y39" s="30">
+        <v>257529000000000</v>
+      </c>
+      <c r="Z39" s="30">
+        <v>255367000000000</v>
+      </c>
+      <c r="AA39" s="30">
+        <v>253008000000000</v>
+      </c>
+      <c r="AB39" s="30">
+        <v>250560000000000</v>
+      </c>
+      <c r="AC39" s="30">
+        <v>247809000000000</v>
+      </c>
+      <c r="AD39" s="30">
+        <v>245248000000000</v>
+      </c>
+      <c r="AE39" s="30">
+        <v>242653000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="30">
+        <v>125080000000000</v>
+      </c>
+      <c r="D40" s="30">
+        <v>122328000000000</v>
+      </c>
+      <c r="E40" s="30">
+        <v>117531000000000</v>
+      </c>
+      <c r="F40" s="30">
+        <v>116908000000000</v>
+      </c>
+      <c r="G40" s="30">
+        <v>114827000000000</v>
+      </c>
+      <c r="H40" s="30">
+        <v>112418000000000</v>
+      </c>
+      <c r="I40" s="30">
+        <v>111972000000000</v>
+      </c>
+      <c r="J40" s="30">
+        <v>110632000000000</v>
+      </c>
+      <c r="K40" s="30">
+        <v>109170000000000</v>
+      </c>
+      <c r="L40" s="30">
+        <v>107343000000000</v>
+      </c>
+      <c r="M40" s="30">
+        <v>106214000000000</v>
+      </c>
+      <c r="N40" s="30">
+        <v>105017000000000</v>
+      </c>
+      <c r="O40" s="30">
+        <v>104194000000000</v>
+      </c>
+      <c r="P40" s="30">
+        <v>102314000000000</v>
+      </c>
+      <c r="Q40" s="30">
+        <v>100439000000000</v>
+      </c>
+      <c r="R40" s="30">
+        <v>98823900000000</v>
+      </c>
+      <c r="S40" s="30">
+        <v>97504000000000</v>
+      </c>
+      <c r="T40" s="30">
+        <v>96036600000000</v>
+      </c>
+      <c r="U40" s="30">
+        <v>94621000000000</v>
+      </c>
+      <c r="V40" s="30">
+        <v>93200000000000</v>
+      </c>
+      <c r="W40" s="30">
+        <v>91887500000000</v>
+      </c>
+      <c r="X40" s="30">
+        <v>90459500000000</v>
+      </c>
+      <c r="Y40" s="30">
+        <v>89109500000000</v>
+      </c>
+      <c r="Z40" s="30">
+        <v>87951700000000</v>
+      </c>
+      <c r="AA40" s="30">
+        <v>86709300000000</v>
+      </c>
+      <c r="AB40" s="30">
+        <v>85534300000000</v>
+      </c>
+      <c r="AC40" s="30">
+        <v>84269200000000</v>
+      </c>
+      <c r="AD40" s="30">
+        <v>83411800000000</v>
+      </c>
+      <c r="AE40" s="30">
+        <v>82481200000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1451180000000000</v>
+      </c>
+      <c r="D41" s="30">
+        <v>1462180000000000</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1463280000000000</v>
+      </c>
+      <c r="F41" s="30">
+        <v>1466410000000000</v>
+      </c>
+      <c r="G41" s="30">
+        <v>1471300000000000</v>
+      </c>
+      <c r="H41" s="30">
+        <v>1462350000000000</v>
+      </c>
+      <c r="I41" s="30">
+        <v>1451050000000000</v>
+      </c>
+      <c r="J41" s="30">
+        <v>1440130000000000</v>
+      </c>
+      <c r="K41" s="30">
+        <v>1427490000000000</v>
+      </c>
+      <c r="L41" s="30">
+        <v>1414920000000000</v>
+      </c>
+      <c r="M41" s="30">
+        <v>1404060000000000</v>
+      </c>
+      <c r="N41" s="30">
+        <v>1390550000000000</v>
+      </c>
+      <c r="O41" s="30">
+        <v>1378680000000000</v>
+      </c>
+      <c r="P41" s="30">
+        <v>1366830000000000</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>1360360000000000</v>
+      </c>
+      <c r="R41" s="30">
+        <v>1350520000000000</v>
+      </c>
+      <c r="S41" s="30">
+        <v>1341760000000000</v>
+      </c>
+      <c r="T41" s="30">
+        <v>1332110000000000</v>
+      </c>
+      <c r="U41" s="30">
+        <v>1321190000000000</v>
+      </c>
+      <c r="V41" s="30">
+        <v>1310080000000000</v>
+      </c>
+      <c r="W41" s="30">
+        <v>1302190000000000</v>
+      </c>
+      <c r="X41" s="30">
+        <v>1292620000000000</v>
+      </c>
+      <c r="Y41" s="30">
+        <v>1285730000000000</v>
+      </c>
+      <c r="Z41" s="30">
+        <v>1280150000000000</v>
+      </c>
+      <c r="AA41" s="30">
+        <v>1275200000000000</v>
+      </c>
+      <c r="AB41" s="30">
+        <v>1266610000000000</v>
+      </c>
+      <c r="AC41" s="30">
+        <v>1261140000000000</v>
+      </c>
+      <c r="AD41" s="30">
+        <v>1254830000000000</v>
+      </c>
+      <c r="AE41" s="30">
+        <v>1246830000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="30">
+        <v>123893000000000</v>
+      </c>
+      <c r="D42" s="30">
+        <v>118154000000000</v>
+      </c>
+      <c r="E42" s="30">
+        <v>115601000000000</v>
+      </c>
+      <c r="F42" s="30">
+        <v>113870000000000</v>
+      </c>
+      <c r="G42" s="30">
+        <v>113982000000000</v>
+      </c>
+      <c r="H42" s="30">
+        <v>113273000000000</v>
+      </c>
+      <c r="I42" s="30">
+        <v>111739000000000</v>
+      </c>
+      <c r="J42" s="30">
+        <v>110915000000000</v>
+      </c>
+      <c r="K42" s="30">
+        <v>108839000000000</v>
+      </c>
+      <c r="L42" s="30">
+        <v>107407000000000</v>
+      </c>
+      <c r="M42" s="30">
+        <v>105960000000000</v>
+      </c>
+      <c r="N42" s="30">
+        <v>104827000000000</v>
+      </c>
+      <c r="O42" s="30">
+        <v>103488000000000</v>
+      </c>
+      <c r="P42" s="30">
+        <v>102109000000000</v>
+      </c>
+      <c r="Q42" s="30">
+        <v>102358000000000</v>
+      </c>
+      <c r="R42" s="30">
+        <v>102641000000000</v>
+      </c>
+      <c r="S42" s="30">
+        <v>103089000000000</v>
+      </c>
+      <c r="T42" s="30">
+        <v>103361000000000</v>
+      </c>
+      <c r="U42" s="30">
+        <v>102565000000000</v>
+      </c>
+      <c r="V42" s="30">
+        <v>103020000000000</v>
+      </c>
+      <c r="W42" s="30">
+        <v>103716000000000</v>
+      </c>
+      <c r="X42" s="30">
+        <v>103344000000000</v>
+      </c>
+      <c r="Y42" s="30">
+        <v>103838000000000</v>
+      </c>
+      <c r="Z42" s="30">
+        <v>104006000000000</v>
+      </c>
+      <c r="AA42" s="30">
+        <v>104613000000000</v>
+      </c>
+      <c r="AB42" s="30">
+        <v>105638000000000</v>
+      </c>
+      <c r="AC42" s="30">
+        <v>106471000000000</v>
+      </c>
+      <c r="AD42" s="30">
+        <v>107252000000000</v>
+      </c>
+      <c r="AE42" s="30">
+        <v>108054000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="30">
+        <v>-239792000000000</v>
+      </c>
+      <c r="D43" s="30">
+        <v>-234893000000000</v>
+      </c>
+      <c r="E43" s="30">
+        <v>-234893000000000</v>
+      </c>
+      <c r="F43" s="30">
+        <v>-235882000000000</v>
+      </c>
+      <c r="G43" s="30">
+        <v>-231942000000000</v>
+      </c>
+      <c r="H43" s="30">
+        <v>-231942000000000</v>
+      </c>
+      <c r="I43" s="30">
+        <v>-231947000000000</v>
+      </c>
+      <c r="J43" s="30">
+        <v>-232937000000000</v>
+      </c>
+      <c r="K43" s="30">
+        <v>-234893000000000</v>
+      </c>
+      <c r="L43" s="30">
+        <v>-232939000000000</v>
+      </c>
+      <c r="M43" s="30">
+        <v>-232939000000000</v>
+      </c>
+      <c r="N43" s="30">
+        <v>-228035000000000</v>
+      </c>
+      <c r="O43" s="30">
+        <v>-227059000000000</v>
+      </c>
+      <c r="P43" s="30">
+        <v>-226081000000000</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>-224117000000000</v>
+      </c>
+      <c r="R43" s="30">
+        <v>-222158000000000</v>
+      </c>
+      <c r="S43" s="30">
+        <v>-220196000000000</v>
+      </c>
+      <c r="T43" s="30">
+        <v>-219234000000000</v>
+      </c>
+      <c r="U43" s="30">
+        <v>-217272000000000</v>
+      </c>
+      <c r="V43" s="30">
+        <v>-215311000000000</v>
+      </c>
+      <c r="W43" s="30">
+        <v>-213349000000000</v>
+      </c>
+      <c r="X43" s="30">
+        <v>-211390000000000</v>
+      </c>
+      <c r="Y43" s="30">
+        <v>-210425000000000</v>
+      </c>
+      <c r="Z43" s="30">
+        <v>-208464000000000</v>
+      </c>
+      <c r="AA43" s="30">
+        <v>-206502000000000</v>
+      </c>
+      <c r="AB43" s="30">
+        <v>-204540000000000</v>
+      </c>
+      <c r="AC43" s="30">
+        <v>-202579000000000</v>
+      </c>
+      <c r="AD43" s="30">
+        <v>-201617000000000</v>
+      </c>
+      <c r="AE43" s="30">
+        <v>-199658000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="30">
+        <v>62635600000000</v>
+      </c>
+      <c r="D45" s="30">
+        <v>59439900000000</v>
+      </c>
+      <c r="E45" s="30">
+        <v>59843900000000</v>
+      </c>
+      <c r="F45" s="30">
+        <v>60321800000000</v>
+      </c>
+      <c r="G45" s="30">
+        <v>62896300000000</v>
+      </c>
+      <c r="H45" s="30">
+        <v>64734400000000</v>
+      </c>
+      <c r="I45" s="30">
+        <v>65779500000000</v>
+      </c>
+      <c r="J45" s="30">
+        <v>67744100000000</v>
+      </c>
+      <c r="K45" s="30">
+        <v>69724900000000</v>
+      </c>
+      <c r="L45" s="30">
+        <v>70274200000000</v>
+      </c>
+      <c r="M45" s="30">
+        <v>70571200000000</v>
+      </c>
+      <c r="N45" s="30">
+        <v>71033100000000</v>
+      </c>
+      <c r="O45" s="30">
+        <v>71586700000000</v>
+      </c>
+      <c r="P45" s="30">
+        <v>72248100000000</v>
+      </c>
+      <c r="Q45" s="30">
+        <v>73544100000000</v>
+      </c>
+      <c r="R45" s="30">
+        <v>74732400000000</v>
+      </c>
+      <c r="S45" s="30">
+        <v>76047000000000</v>
+      </c>
+      <c r="T45" s="30">
+        <v>77306100000000</v>
+      </c>
+      <c r="U45" s="30">
+        <v>78819700000000</v>
+      </c>
+      <c r="V45" s="30">
+        <v>79834200000000</v>
+      </c>
+      <c r="W45" s="30">
+        <v>81102500000000</v>
+      </c>
+      <c r="X45" s="30">
+        <v>81312900000000</v>
+      </c>
+      <c r="Y45" s="30">
+        <v>82474700000000</v>
+      </c>
+      <c r="Z45" s="30">
+        <v>83583400000000</v>
+      </c>
+      <c r="AA45" s="30">
+        <v>84752000000000</v>
+      </c>
+      <c r="AB45" s="30">
+        <v>86210800000000</v>
+      </c>
+      <c r="AC45" s="30">
+        <v>87529800000000</v>
+      </c>
+      <c r="AD45" s="30">
+        <v>88856100000000</v>
+      </c>
+      <c r="AE45" s="30">
+        <v>90267000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="Free allowances to other industries" xr:uid="{3CA7A010-3535-4F25-9BD0-52037EDB8016}"/>
+    <hyperlink ref="B10" r:id="rId2" display="Free allowances to high-leak-risk industries" xr:uid="{7A0B70FD-C22B-4CF8-B50A-84293460D74A}"/>
+    <hyperlink ref="B16" r:id="rId3" display="Free allowances to other industries" xr:uid="{4BAF2E08-9D96-4FB3-BE3D-111F36D33C47}"/>
+    <hyperlink ref="B15" r:id="rId4" display="Free allowances to high-leak-risk industries" xr:uid="{931557CF-2723-4493-B204-FD510C7CF3BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A588720-4507-45D9-BCC3-2B2208374E22}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -1412,15 +4991,15 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +5094,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +5219,7 @@
         <v>90.517287831162989</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +5344,7 @@
         <v>90.517287831162989</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2080,132 +5659,132 @@
         <v>90.517287831162989</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24">
-        <f>B6*0.75*0.6</f>
-        <v>15.840525370453523</v>
+        <f>B6*(('Allowance Schedule'!C45/'Allowance Schedule'!C42)*'Allowance Schedule'!D15+(1-'Allowance Schedule'!C45/'Allowance Schedule'!C42))</f>
+        <v>17.404792824417839</v>
       </c>
       <c r="C7" s="24">
-        <f t="shared" ref="C7:AE7" si="3">C6*0.75*0.6</f>
-        <v>15.840525370453523</v>
+        <f>C6*(('Allowance Schedule'!C45/'Allowance Schedule'!C42)*'Allowance Schedule'!D15+(1-'Allowance Schedule'!C45/'Allowance Schedule'!C42))</f>
+        <v>17.404792824417839</v>
       </c>
       <c r="D7" s="24">
-        <f t="shared" si="3"/>
-        <v>15.840525370453523</v>
+        <f>D6*(('Allowance Schedule'!D45/'Allowance Schedule'!D42)*'Allowance Schedule'!E15+(1-'Allowance Schedule'!D45/'Allowance Schedule'!D42))</f>
+        <v>17.492466341541927</v>
       </c>
       <c r="E7" s="24">
-        <f t="shared" si="3"/>
-        <v>15.840525370453523</v>
+        <f>E6*(('Allowance Schedule'!E45/'Allowance Schedule'!E42)*'Allowance Schedule'!F15+(1-'Allowance Schedule'!E45/'Allowance Schedule'!E42))</f>
+        <v>16.978356725728325</v>
       </c>
       <c r="F7" s="24">
-        <f t="shared" si="3"/>
-        <v>15.840525370453523</v>
+        <f>F6*(('Allowance Schedule'!F45/'Allowance Schedule'!F42)*'Allowance Schedule'!G15+(1-'Allowance Schedule'!F45/'Allowance Schedule'!F42))</f>
+        <v>16.55360636675584</v>
       </c>
       <c r="G7" s="24">
-        <f t="shared" si="3"/>
-        <v>17.198284687920971</v>
+        <f>G6*(('Allowance Schedule'!G45/'Allowance Schedule'!G42)*'Allowance Schedule'!H15+(1-'Allowance Schedule'!G45/'Allowance Schedule'!G42))</f>
+        <v>17.129145383222777</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" si="3"/>
-        <v>18.556044005388411</v>
+        <f>H6*(('Allowance Schedule'!H45/'Allowance Schedule'!H42)*'Allowance Schedule'!I15+(1-'Allowance Schedule'!H45/'Allowance Schedule'!H42))</f>
+        <v>18.25902920744095</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" si="3"/>
-        <v>19.913803322855859</v>
+        <f>I6*(('Allowance Schedule'!I45/'Allowance Schedule'!I42)*'Allowance Schedule'!J15+(1-'Allowance Schedule'!I45/'Allowance Schedule'!I42))</f>
+        <v>19.504270270711885</v>
       </c>
       <c r="J7" s="24">
-        <f t="shared" si="3"/>
-        <v>21.271562640323303</v>
+        <f>J6*(('Allowance Schedule'!J45/'Allowance Schedule'!J42)*'Allowance Schedule'!K15+(1-'Allowance Schedule'!J45/'Allowance Schedule'!J42))</f>
+        <v>21.285865357463241</v>
       </c>
       <c r="K7" s="24">
-        <f t="shared" si="3"/>
-        <v>22.629321957790751</v>
+        <f>K6*(('Allowance Schedule'!K45/'Allowance Schedule'!K42)*'Allowance Schedule'!L15+(1-'Allowance Schedule'!K45/'Allowance Schedule'!K42))</f>
+        <v>25.320512854737427</v>
       </c>
       <c r="L7" s="24">
-        <f t="shared" si="3"/>
-        <v>23.534494836102382</v>
+        <f>L6*(('Allowance Schedule'!L45/'Allowance Schedule'!L42)*'Allowance Schedule'!M15+(1-'Allowance Schedule'!L45/'Allowance Schedule'!L42))</f>
+        <v>34.676564043528451</v>
       </c>
       <c r="M7" s="24">
-        <f t="shared" si="3"/>
-        <v>24.439667714414011</v>
+        <f>M6*(('Allowance Schedule'!M45/'Allowance Schedule'!M42)*'Allowance Schedule'!N15+(1-'Allowance Schedule'!M45/'Allowance Schedule'!M42))</f>
+        <v>40.203428684165964</v>
       </c>
       <c r="N7" s="24">
-        <f t="shared" si="3"/>
-        <v>25.344840592725642</v>
+        <f>N6*(('Allowance Schedule'!N45/'Allowance Schedule'!N42)*'Allowance Schedule'!O15+(1-'Allowance Schedule'!N45/'Allowance Schedule'!N42))</f>
+        <v>46.208157075568081</v>
       </c>
       <c r="O7" s="24">
-        <f t="shared" si="3"/>
-        <v>26.250013471037267</v>
+        <f>O6*(('Allowance Schedule'!O45/'Allowance Schedule'!O42)*'Allowance Schedule'!P15+(1-'Allowance Schedule'!O45/'Allowance Schedule'!O42))</f>
+        <v>52.684157402728609</v>
       </c>
       <c r="P7" s="24">
-        <f t="shared" si="3"/>
-        <v>27.155186349348895</v>
+        <f>P6*(('Allowance Schedule'!P45/'Allowance Schedule'!P42)*'Allowance Schedule'!Q15+(1-'Allowance Schedule'!P45/'Allowance Schedule'!P42))</f>
+        <v>60.344858554108662</v>
       </c>
       <c r="Q7" s="24">
-        <f t="shared" si="3"/>
-        <v>28.060359227660527</v>
+        <f>Q6*(('Allowance Schedule'!Q45/'Allowance Schedule'!Q42)*'Allowance Schedule'!R15+(1-'Allowance Schedule'!Q45/'Allowance Schedule'!Q42))</f>
+        <v>62.356353839245621</v>
       </c>
       <c r="R7" s="24">
-        <f t="shared" si="3"/>
-        <v>28.965532105972155</v>
+        <f>R6*(('Allowance Schedule'!R45/'Allowance Schedule'!R42)*'Allowance Schedule'!S15+(1-'Allowance Schedule'!R45/'Allowance Schedule'!R42))</f>
+        <v>64.367849124382573</v>
       </c>
       <c r="S7" s="24">
-        <f t="shared" si="3"/>
-        <v>29.870704984283787</v>
+        <f>S6*(('Allowance Schedule'!S45/'Allowance Schedule'!S42)*'Allowance Schedule'!T15+(1-'Allowance Schedule'!S45/'Allowance Schedule'!S42))</f>
+        <v>66.379344409519533</v>
       </c>
       <c r="T7" s="24">
-        <f t="shared" si="3"/>
-        <v>30.775877862595415</v>
+        <f>T6*(('Allowance Schedule'!T45/'Allowance Schedule'!T42)*'Allowance Schedule'!U15+(1-'Allowance Schedule'!T45/'Allowance Schedule'!T42))</f>
+        <v>68.390839694656478</v>
       </c>
       <c r="U7" s="24">
-        <f t="shared" si="3"/>
-        <v>31.681050740907047</v>
+        <f>U6*(('Allowance Schedule'!U45/'Allowance Schedule'!U42)*'Allowance Schedule'!V15+(1-'Allowance Schedule'!U45/'Allowance Schedule'!U42))</f>
+        <v>70.402334979793437</v>
       </c>
       <c r="V7" s="24">
-        <f t="shared" si="3"/>
-        <v>32.586223619218678</v>
+        <f>V6*(('Allowance Schedule'!V45/'Allowance Schedule'!V42)*'Allowance Schedule'!W15+(1-'Allowance Schedule'!V45/'Allowance Schedule'!V42))</f>
+        <v>72.413830264930397</v>
       </c>
       <c r="W7" s="24">
-        <f t="shared" si="3"/>
-        <v>33.49139649753031</v>
+        <f>W6*(('Allowance Schedule'!W45/'Allowance Schedule'!W42)*'Allowance Schedule'!X15+(1-'Allowance Schedule'!W45/'Allowance Schedule'!W42))</f>
+        <v>74.425325550067356</v>
       </c>
       <c r="X7" s="24">
-        <f t="shared" si="3"/>
-        <v>34.396569375841942</v>
+        <f>X6*(('Allowance Schedule'!X45/'Allowance Schedule'!X42)*'Allowance Schedule'!Y15+(1-'Allowance Schedule'!X45/'Allowance Schedule'!X42))</f>
+        <v>76.436820835204315</v>
       </c>
       <c r="Y7" s="24">
-        <f t="shared" si="3"/>
-        <v>35.301742254153567</v>
+        <f>Y6*(('Allowance Schedule'!Y45/'Allowance Schedule'!Y42)*'Allowance Schedule'!Z15+(1-'Allowance Schedule'!Y45/'Allowance Schedule'!Y42))</f>
+        <v>78.448316120341261</v>
       </c>
       <c r="Z7" s="24">
-        <f t="shared" si="3"/>
-        <v>36.206915132465198</v>
+        <f>Z6*(('Allowance Schedule'!Z45/'Allowance Schedule'!Z42)*'Allowance Schedule'!AA15+(1-'Allowance Schedule'!Z45/'Allowance Schedule'!Z42))</f>
+        <v>80.45981140547822</v>
       </c>
       <c r="AA7" s="24">
-        <f t="shared" si="3"/>
-        <v>37.112088010776823</v>
+        <f>AA6*(('Allowance Schedule'!AA45/'Allowance Schedule'!AA42)*'Allowance Schedule'!AB15+(1-'Allowance Schedule'!AA45/'Allowance Schedule'!AA42))</f>
+        <v>82.471306690615165</v>
       </c>
       <c r="AB7" s="24">
-        <f t="shared" si="3"/>
-        <v>38.017260889088462</v>
+        <f>AB6*(('Allowance Schedule'!AB45/'Allowance Schedule'!AB42)*'Allowance Schedule'!AC15+(1-'Allowance Schedule'!AB45/'Allowance Schedule'!AB42))</f>
+        <v>84.482801975752139</v>
       </c>
       <c r="AC7" s="24">
-        <f t="shared" si="3"/>
-        <v>38.922433767400086</v>
+        <f>AC6*(('Allowance Schedule'!AC45/'Allowance Schedule'!AC42)*'Allowance Schedule'!AD15+(1-'Allowance Schedule'!AC45/'Allowance Schedule'!AC42))</f>
+        <v>86.494297260889084</v>
       </c>
       <c r="AD7" s="24">
-        <f t="shared" si="3"/>
-        <v>39.827606645711718</v>
+        <f>AD6*(('Allowance Schedule'!AD45/'Allowance Schedule'!AD42)*'Allowance Schedule'!AE15+(1-'Allowance Schedule'!AD45/'Allowance Schedule'!AD42))</f>
+        <v>88.505792546026044</v>
       </c>
       <c r="AE7" s="24">
-        <f t="shared" si="3"/>
-        <v>40.732779524023343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+        <f>AE6*(('Allowance Schedule'!AE45/'Allowance Schedule'!AE42)*'Allowance Schedule'!AF15+(1-'Allowance Schedule'!AE45/'Allowance Schedule'!AE42))</f>
+        <v>90.517287831162989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2300,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2402,6 +5981,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -2630,27 +6229,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3810981-6F61-4C76-A985-60AA740A519D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2667,23 +6265,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AEB696-AA90-45CB-B453-739D51A4BE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187D143-7832-42EF-BDC9-4813FDEF40F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>